--- a/Not OOP/Расчётная по ТВиМС/Непрерывные величины(Мое).xlsx
+++ b/Not OOP/Расчётная по ТВиМС/Непрерывные величины(Мое).xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -248,13 +245,13 @@
     <t>R &gt; 3, значит отвергается</t>
   </si>
   <si>
-    <t>Pi</t>
-  </si>
-  <si>
     <t>mi'</t>
   </si>
   <si>
     <t>Нормальное распределение</t>
+  </si>
+  <si>
+    <t>F(t)</t>
   </si>
 </sst>
 </file>
@@ -713,34 +710,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,19 +739,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -949,11 +946,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="70654592"/>
-        <c:axId val="70674688"/>
+        <c:axId val="85431040"/>
+        <c:axId val="92648192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70654592"/>
+        <c:axId val="85431040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +993,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70674688"/>
+        <c:crossAx val="92648192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1004,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70674688"/>
+        <c:axId val="92648192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1052,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70654592"/>
+        <c:crossAx val="85431040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1189,7 +1186,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1277,11 +1275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286376320"/>
-        <c:axId val="286378240"/>
+        <c:axId val="198034944"/>
+        <c:axId val="198036864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286376320"/>
+        <c:axId val="198034944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1358,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286378240"/>
+        <c:crossAx val="198036864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +1366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286378240"/>
+        <c:axId val="198036864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1457,7 +1455,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286376320"/>
+        <c:crossAx val="198034944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,14 +1581,20 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1678,11 +1682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286003584"/>
-        <c:axId val="286005504"/>
+        <c:axId val="198074368"/>
+        <c:axId val="198076288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286003584"/>
+        <c:axId val="198074368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286005504"/>
+        <c:crossAx val="198076288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286005504"/>
+        <c:axId val="198076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1858,7 +1862,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286003584"/>
+        <c:crossAx val="198074368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,8 +1951,8 @@
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2741456" cy="1535430"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -2187,7 +2191,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2398,7 +2402,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -3536,8 +3540,8 @@
       <xdr:rowOff>84908</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="151067" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -3613,7 +3617,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -3747,9 +3751,9 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="151067" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="220701" cy="184731"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -3757,8 +3761,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3230880" y="23995380"/>
-              <a:ext cx="151067" cy="172227"/>
+              <a:off x="3158266" y="23416260"/>
+              <a:ext cx="220701" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3811,9 +3815,15 @@
                       <m:sub>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
-                          <m:t>𝑖</m:t>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>р</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -3825,7 +3835,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -3833,8 +3843,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3230880" y="23995380"/>
-              <a:ext cx="151067" cy="172227"/>
+              <a:off x="3158266" y="23416260"/>
+              <a:ext cx="220701" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3870,15 +3880,21 @@
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Cambria Math"/>
                 </a:rPr>
                 <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑖</a:t>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>р</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -3931,7 +3947,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3981,7 +3996,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3996,8 +4010,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="189091" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -4005,7 +4019,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5280660" y="24010620"/>
+              <a:off x="5136776" y="23439120"/>
               <a:ext cx="189091" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4073,7 +4087,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -4081,7 +4095,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5280660" y="24010620"/>
+              <a:off x="5136776" y="23439120"/>
               <a:ext cx="189091" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4118,7 +4132,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Cambria Math"/>
                 </a:rPr>
                 <a:t>_</a:t>
               </a:r>
@@ -4139,13 +4153,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>157331</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="399853" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="130933" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -4153,8 +4167,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4335780" y="24025860"/>
-              <a:ext cx="399853" cy="172227"/>
+              <a:off x="4247030" y="23398331"/>
+              <a:ext cx="130933" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4199,9 +4213,9 @@
                       <m:e>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
-                          <m:t>𝑥</m:t>
+                          <m:t>𝑡</m:t>
                         </m:r>
                       </m:e>
                       <m:sub>
@@ -4213,18 +4227,6 @@
                         </m:r>
                       </m:sub>
                     </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>h</m:t>
-                    </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -4233,7 +4235,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -4241,8 +4243,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4335780" y="24025860"/>
-              <a:ext cx="399853" cy="172227"/>
+              <a:off x="4247030" y="23398331"/>
+              <a:ext cx="130933" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4272,13 +4274,13 @@
               <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑥</a:t>
+                <a:t>𝑡</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Cambria Math"/>
                 </a:rPr>
                 <a:t>_</a:t>
               </a:r>
@@ -4286,7 +4288,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑖+ℎ</a:t>
+                <a:t>𝑖</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -4906,7 +4908,7 @@
         <xdr:cNvPr id="23" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4969,7 +4971,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4994,7 +4995,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5055,136 +5056,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Исходные данные"/>
-      <sheetName val="НД"/>
-      <sheetName val="ДД 1"/>
-      <sheetName val="ДД 2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="E4">
-            <v>-23.924999999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>-18.975000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>-14.025</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>-9.0750000000000011</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>-4.125</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>0.82499999999999973</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>5.7750000000000004</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>10.725</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>15.674999999999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>20.625</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>25.574999999999996</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>4.3999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>9.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>0.215</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>0.39600000000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>0.51300000000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>0.623</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>0.78400000000000003</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>0.95599999999999996</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5442,7 +5313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5452,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,743 +5339,743 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="30">
         <v>1</v>
       </c>
-      <c r="C1" s="47">
+      <c r="C1" s="30">
         <v>1</v>
       </c>
-      <c r="D1" s="47">
+      <c r="D1" s="30">
         <v>2</v>
       </c>
-      <c r="E1" s="47">
+      <c r="E1" s="30">
         <v>-1</v>
       </c>
-      <c r="F1" s="47">
+      <c r="F1" s="30">
         <v>-3</v>
       </c>
-      <c r="G1" s="47">
+      <c r="G1" s="30">
         <v>1</v>
       </c>
-      <c r="H1" s="47">
+      <c r="H1" s="30">
         <v>0</v>
       </c>
-      <c r="I1" s="47">
+      <c r="I1" s="30">
         <v>1</v>
       </c>
-      <c r="J1" s="47">
+      <c r="J1" s="30">
         <v>2</v>
       </c>
-      <c r="K1" s="47">
+      <c r="K1" s="30">
         <v>2</v>
       </c>
-      <c r="L1" s="47">
+      <c r="L1" s="30">
         <v>0</v>
       </c>
-      <c r="M1" s="47">
+      <c r="M1" s="30">
         <v>1</v>
       </c>
-      <c r="N1" s="47">
+      <c r="N1" s="30">
         <v>-1</v>
       </c>
-      <c r="O1" s="47">
+      <c r="O1" s="30">
         <v>-3</v>
       </c>
-      <c r="P1" s="47">
+      <c r="P1" s="30">
         <v>2</v>
       </c>
-      <c r="Q1" s="47">
+      <c r="Q1" s="30">
         <v>4</v>
       </c>
-      <c r="R1" s="47">
+      <c r="R1" s="30">
         <v>2</v>
       </c>
-      <c r="S1" s="47">
+      <c r="S1" s="30">
         <v>-5</v>
       </c>
-      <c r="T1" s="47">
+      <c r="T1" s="30">
         <v>5</v>
       </c>
-      <c r="U1" s="47">
+      <c r="U1" s="30">
         <v>2</v>
       </c>
-      <c r="V1" s="47">
+      <c r="V1" s="30">
         <v>-4</v>
       </c>
-      <c r="W1" s="47">
+      <c r="W1" s="30">
         <v>-6</v>
       </c>
-      <c r="X1" s="47">
+      <c r="X1" s="30">
         <v>-3</v>
       </c>
-      <c r="Y1" s="47">
+      <c r="Y1" s="30">
         <v>1</v>
       </c>
-      <c r="Z1" s="47">
+      <c r="Z1" s="30">
         <v>2</v>
       </c>
-      <c r="AA1" s="47">
+      <c r="AA1" s="30">
         <v>1</v>
       </c>
-      <c r="AB1" s="47">
+      <c r="AB1" s="30">
         <v>2</v>
       </c>
-      <c r="AC1" s="47">
+      <c r="AC1" s="30">
         <v>2</v>
       </c>
-      <c r="AD1" s="47">
+      <c r="AD1" s="30">
         <v>-5</v>
       </c>
-      <c r="AE1" s="47">
+      <c r="AE1" s="30">
         <v>-3</v>
       </c>
-      <c r="AF1" s="47">
+      <c r="AF1" s="30">
         <v>2</v>
       </c>
-      <c r="AG1" s="47">
+      <c r="AG1" s="30">
         <v>6</v>
       </c>
-      <c r="AH1" s="47">
+      <c r="AH1" s="30">
         <v>5</v>
       </c>
-      <c r="AI1" s="47">
+      <c r="AI1" s="30">
         <v>-4</v>
       </c>
-      <c r="AJ1" s="47">
+      <c r="AJ1" s="30">
         <v>5</v>
       </c>
-      <c r="AK1" s="47">
+      <c r="AK1" s="30">
         <v>10</v>
       </c>
-      <c r="AL1" s="47">
+      <c r="AL1" s="30">
         <v>6</v>
       </c>
-      <c r="AM1" s="47">
+      <c r="AM1" s="30">
         <v>3</v>
       </c>
-      <c r="AN1" s="47">
+      <c r="AN1" s="30">
         <v>0</v>
       </c>
-      <c r="AO1" s="47">
+      <c r="AO1" s="30">
         <v>-2</v>
       </c>
-      <c r="AP1" s="47">
+      <c r="AP1" s="30">
         <v>5</v>
       </c>
-      <c r="AQ1" s="47">
+      <c r="AQ1" s="30">
         <v>6</v>
       </c>
-      <c r="AR1" s="47">
+      <c r="AR1" s="30">
         <v>8</v>
       </c>
-      <c r="AS1" s="47">
+      <c r="AS1" s="30">
         <v>3</v>
       </c>
-      <c r="AT1" s="47">
+      <c r="AT1" s="30">
         <v>6</v>
       </c>
-      <c r="AU1" s="47">
+      <c r="AU1" s="30">
         <v>6</v>
       </c>
-      <c r="AV1" s="47">
+      <c r="AV1" s="30">
         <v>8</v>
       </c>
-      <c r="AW1" s="47">
+      <c r="AW1" s="30">
         <v>1</v>
       </c>
-      <c r="AX1" s="47">
+      <c r="AX1" s="30">
         <v>4</v>
       </c>
-      <c r="AY1" s="47">
+      <c r="AY1" s="30">
         <v>0</v>
       </c>
-      <c r="AZ1" s="47">
+      <c r="AZ1" s="30">
         <v>3</v>
       </c>
-      <c r="BA1" s="47">
+      <c r="BA1" s="30">
         <v>-2</v>
       </c>
-      <c r="BB1" s="47">
+      <c r="BB1" s="30">
         <v>6</v>
       </c>
-      <c r="BC1" s="47">
+      <c r="BC1" s="30">
         <v>6</v>
       </c>
-      <c r="BD1" s="47">
+      <c r="BD1" s="30">
         <v>13</v>
       </c>
-      <c r="BE1" s="47">
+      <c r="BE1" s="30">
         <v>8</v>
       </c>
-      <c r="BF1" s="47">
+      <c r="BF1" s="30">
         <v>1</v>
       </c>
-      <c r="BG1" s="47">
+      <c r="BG1" s="30">
         <v>2</v>
       </c>
-      <c r="BH1" s="47">
+      <c r="BH1" s="30">
         <v>3</v>
       </c>
-      <c r="BI1" s="47">
+      <c r="BI1" s="30">
         <v>3</v>
       </c>
-      <c r="BJ1" s="47">
+      <c r="BJ1" s="30">
         <v>4</v>
       </c>
-      <c r="BK1" s="47">
+      <c r="BK1" s="30">
         <v>9</v>
       </c>
-      <c r="BL1" s="47">
+      <c r="BL1" s="30">
         <v>13</v>
       </c>
-      <c r="BM1" s="47">
+      <c r="BM1" s="30">
         <v>13</v>
       </c>
-      <c r="BN1" s="47">
+      <c r="BN1" s="30">
         <v>9</v>
       </c>
-      <c r="BO1" s="47">
+      <c r="BO1" s="30">
         <v>7</v>
       </c>
-      <c r="BP1" s="47">
+      <c r="BP1" s="30">
         <v>4</v>
       </c>
-      <c r="BQ1" s="47">
+      <c r="BQ1" s="30">
         <v>7</v>
       </c>
-      <c r="BR1" s="47">
+      <c r="BR1" s="30">
         <v>8</v>
       </c>
-      <c r="BS1" s="47">
+      <c r="BS1" s="30">
         <v>2</v>
       </c>
-      <c r="BT1" s="47">
+      <c r="BT1" s="30">
         <v>5</v>
       </c>
-      <c r="BU1" s="47">
+      <c r="BU1" s="30">
         <v>15</v>
       </c>
-      <c r="BV1" s="47">
+      <c r="BV1" s="30">
         <v>16</v>
       </c>
-      <c r="BW1" s="47">
+      <c r="BW1" s="30">
         <v>17</v>
       </c>
-      <c r="BX1" s="47">
+      <c r="BX1" s="30">
         <v>16</v>
       </c>
-      <c r="BY1" s="47">
+      <c r="BY1" s="30">
         <v>12</v>
       </c>
-      <c r="BZ1" s="47">
+      <c r="BZ1" s="30">
         <v>17</v>
       </c>
-      <c r="CA1" s="47">
+      <c r="CA1" s="30">
         <v>18</v>
       </c>
-      <c r="CB1" s="47">
+      <c r="CB1" s="30">
         <v>20</v>
       </c>
-      <c r="CC1" s="47">
+      <c r="CC1" s="30">
         <v>22</v>
       </c>
-      <c r="CD1" s="47">
+      <c r="CD1" s="30">
         <v>14</v>
       </c>
-      <c r="CE1" s="47">
+      <c r="CE1" s="30">
         <v>23</v>
       </c>
-      <c r="CF1" s="47">
+      <c r="CF1" s="30">
         <v>24</v>
       </c>
-      <c r="CG1" s="47">
+      <c r="CG1" s="30">
         <v>23</v>
       </c>
-      <c r="CH1" s="47">
+      <c r="CH1" s="30">
         <v>15</v>
       </c>
-      <c r="CI1" s="47">
+      <c r="CI1" s="30">
         <v>10</v>
       </c>
-      <c r="CJ1" s="47">
+      <c r="CJ1" s="30">
         <v>16</v>
       </c>
-      <c r="CK1" s="47">
+      <c r="CK1" s="30">
         <v>12</v>
       </c>
-      <c r="CL1" s="47">
+      <c r="CL1" s="30">
         <v>8</v>
       </c>
-      <c r="CM1" s="47">
+      <c r="CM1" s="30">
         <v>12</v>
       </c>
-      <c r="CN1" s="47">
+      <c r="CN1" s="30">
         <v>11</v>
       </c>
-      <c r="CO1" s="47">
+      <c r="CO1" s="30">
         <v>7</v>
       </c>
-      <c r="CP1" s="47">
+      <c r="CP1" s="30">
         <v>6</v>
       </c>
-      <c r="CQ1" s="47">
+      <c r="CQ1" s="30">
         <v>10</v>
       </c>
-      <c r="CR1" s="47">
+      <c r="CR1" s="30">
         <v>11</v>
       </c>
-      <c r="CS1" s="47">
+      <c r="CS1" s="30">
         <v>15</v>
       </c>
-      <c r="CT1" s="47">
+      <c r="CT1" s="30">
         <v>15</v>
       </c>
-      <c r="CU1" s="47">
+      <c r="CU1" s="30">
         <v>20</v>
       </c>
-      <c r="CV1" s="47">
+      <c r="CV1" s="30">
         <v>21</v>
       </c>
-      <c r="CW1" s="47">
+      <c r="CW1" s="30">
         <v>15</v>
       </c>
-      <c r="CX1" s="47">
+      <c r="CX1" s="30">
         <v>20</v>
       </c>
-      <c r="CY1" s="47">
+      <c r="CY1" s="30">
         <v>14</v>
       </c>
-      <c r="CZ1" s="47">
+      <c r="CZ1" s="30">
         <v>21</v>
       </c>
-      <c r="DA1" s="47">
+      <c r="DA1" s="30">
         <v>23</v>
       </c>
-      <c r="DB1" s="47">
+      <c r="DB1" s="30">
         <v>25</v>
       </c>
-      <c r="DC1" s="47">
+      <c r="DC1" s="30">
         <v>26</v>
       </c>
-      <c r="DD1" s="47">
+      <c r="DD1" s="30">
         <v>25</v>
       </c>
-      <c r="DE1" s="47">
+      <c r="DE1" s="30">
         <v>24</v>
       </c>
-      <c r="DF1" s="47">
+      <c r="DF1" s="30">
         <v>25</v>
       </c>
-      <c r="DG1" s="47">
+      <c r="DG1" s="30">
         <v>24</v>
       </c>
-      <c r="DH1" s="47">
+      <c r="DH1" s="30">
         <v>20</v>
       </c>
-      <c r="DI1" s="47">
+      <c r="DI1" s="30">
         <v>14</v>
       </c>
-      <c r="DJ1" s="47">
+      <c r="DJ1" s="30">
         <v>23</v>
       </c>
-      <c r="DK1" s="47">
+      <c r="DK1" s="30">
         <v>22</v>
       </c>
-      <c r="DL1" s="47">
+      <c r="DL1" s="30">
         <v>17</v>
       </c>
-      <c r="DM1" s="47">
+      <c r="DM1" s="30">
         <v>18</v>
       </c>
-      <c r="DN1" s="47">
+      <c r="DN1" s="30">
         <v>22</v>
       </c>
-      <c r="DO1" s="47">
+      <c r="DO1" s="30">
         <v>17</v>
       </c>
-      <c r="DP1" s="47">
+      <c r="DP1" s="30">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="31">
         <v>-6</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="31">
         <v>-5</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="31">
         <v>-5</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="31">
         <v>-4</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="31">
         <v>-4</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="31">
         <v>-3</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="31">
         <v>-3</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="31">
         <v>-3</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="31">
         <v>-3</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="31">
         <v>-2</v>
       </c>
-      <c r="L2" s="48">
+      <c r="L2" s="31">
         <v>-2</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="31">
         <v>-1</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="31">
         <v>-1</v>
       </c>
-      <c r="O2" s="48">
+      <c r="O2" s="31">
         <v>0</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="31">
         <v>0</v>
       </c>
-      <c r="Q2" s="48">
+      <c r="Q2" s="31">
         <v>0</v>
       </c>
-      <c r="R2" s="48">
+      <c r="R2" s="31">
         <v>0</v>
       </c>
-      <c r="S2" s="48">
+      <c r="S2" s="31">
         <v>1</v>
       </c>
-      <c r="T2" s="48">
+      <c r="T2" s="31">
         <v>1</v>
       </c>
-      <c r="U2" s="48">
+      <c r="U2" s="31">
         <v>1</v>
       </c>
-      <c r="V2" s="48">
+      <c r="V2" s="31">
         <v>1</v>
       </c>
-      <c r="W2" s="48">
+      <c r="W2" s="31">
         <v>1</v>
       </c>
-      <c r="X2" s="48">
+      <c r="X2" s="31">
         <v>1</v>
       </c>
-      <c r="Y2" s="48">
+      <c r="Y2" s="31">
         <v>1</v>
       </c>
-      <c r="Z2" s="48">
+      <c r="Z2" s="31">
         <v>1</v>
       </c>
-      <c r="AA2" s="48">
+      <c r="AA2" s="31">
         <v>1</v>
       </c>
-      <c r="AB2" s="48">
+      <c r="AB2" s="31">
         <v>2</v>
       </c>
-      <c r="AC2" s="48">
+      <c r="AC2" s="31">
         <v>2</v>
       </c>
-      <c r="AD2" s="48">
+      <c r="AD2" s="31">
         <v>2</v>
       </c>
-      <c r="AE2" s="48">
+      <c r="AE2" s="31">
         <v>2</v>
       </c>
-      <c r="AF2" s="48">
+      <c r="AF2" s="31">
         <v>2</v>
       </c>
-      <c r="AG2" s="48">
+      <c r="AG2" s="31">
         <v>2</v>
       </c>
-      <c r="AH2" s="48">
+      <c r="AH2" s="31">
         <v>2</v>
       </c>
-      <c r="AI2" s="48">
+      <c r="AI2" s="31">
         <v>2</v>
       </c>
-      <c r="AJ2" s="48">
+      <c r="AJ2" s="31">
         <v>2</v>
       </c>
-      <c r="AK2" s="48">
+      <c r="AK2" s="31">
         <v>2</v>
       </c>
-      <c r="AL2" s="48">
+      <c r="AL2" s="31">
         <v>2</v>
       </c>
-      <c r="AM2" s="48">
+      <c r="AM2" s="31">
         <v>2</v>
       </c>
-      <c r="AN2" s="48">
+      <c r="AN2" s="31">
         <v>3</v>
       </c>
-      <c r="AO2" s="48">
+      <c r="AO2" s="31">
         <v>3</v>
       </c>
-      <c r="AP2" s="48">
+      <c r="AP2" s="31">
         <v>3</v>
       </c>
-      <c r="AQ2" s="48">
+      <c r="AQ2" s="31">
         <v>3</v>
       </c>
-      <c r="AR2" s="48">
+      <c r="AR2" s="31">
         <v>3</v>
       </c>
-      <c r="AS2" s="48">
+      <c r="AS2" s="31">
         <v>4</v>
       </c>
-      <c r="AT2" s="48">
+      <c r="AT2" s="31">
         <v>4</v>
       </c>
-      <c r="AU2" s="48">
+      <c r="AU2" s="31">
         <v>4</v>
       </c>
-      <c r="AV2" s="48">
+      <c r="AV2" s="31">
         <v>4</v>
       </c>
-      <c r="AW2" s="48">
+      <c r="AW2" s="31">
         <v>5</v>
       </c>
-      <c r="AX2" s="48">
+      <c r="AX2" s="31">
         <v>5</v>
       </c>
-      <c r="AY2" s="48">
+      <c r="AY2" s="31">
         <v>5</v>
       </c>
-      <c r="AZ2" s="48">
+      <c r="AZ2" s="31">
         <v>5</v>
       </c>
-      <c r="BA2" s="48">
+      <c r="BA2" s="31">
         <v>5</v>
       </c>
-      <c r="BB2" s="48">
+      <c r="BB2" s="31">
         <v>6</v>
       </c>
-      <c r="BC2" s="48">
+      <c r="BC2" s="31">
         <v>6</v>
       </c>
-      <c r="BD2" s="48">
+      <c r="BD2" s="31">
         <v>6</v>
       </c>
-      <c r="BE2" s="48">
+      <c r="BE2" s="31">
         <v>6</v>
       </c>
-      <c r="BF2" s="48">
+      <c r="BF2" s="31">
         <v>6</v>
       </c>
-      <c r="BG2" s="48">
+      <c r="BG2" s="31">
         <v>6</v>
       </c>
-      <c r="BH2" s="48">
+      <c r="BH2" s="31">
         <v>6</v>
       </c>
-      <c r="BI2" s="48">
+      <c r="BI2" s="31">
         <v>6</v>
       </c>
-      <c r="BJ2" s="48">
+      <c r="BJ2" s="31">
         <v>7</v>
       </c>
-      <c r="BK2" s="48">
+      <c r="BK2" s="31">
         <v>7</v>
       </c>
-      <c r="BL2" s="48">
+      <c r="BL2" s="31">
         <v>7</v>
       </c>
-      <c r="BM2" s="48">
+      <c r="BM2" s="31">
         <v>8</v>
       </c>
-      <c r="BN2" s="48">
+      <c r="BN2" s="31">
         <v>8</v>
       </c>
-      <c r="BO2" s="48">
+      <c r="BO2" s="31">
         <v>8</v>
       </c>
-      <c r="BP2" s="48">
+      <c r="BP2" s="31">
         <v>8</v>
       </c>
-      <c r="BQ2" s="48">
+      <c r="BQ2" s="31">
         <v>8</v>
       </c>
-      <c r="BR2" s="48">
+      <c r="BR2" s="31">
         <v>9</v>
       </c>
-      <c r="BS2" s="48">
+      <c r="BS2" s="31">
         <v>9</v>
       </c>
-      <c r="BT2" s="48">
+      <c r="BT2" s="31">
         <v>10</v>
       </c>
-      <c r="BU2" s="48">
+      <c r="BU2" s="31">
         <v>10</v>
       </c>
-      <c r="BV2" s="48">
+      <c r="BV2" s="31">
         <v>10</v>
       </c>
-      <c r="BW2" s="48">
+      <c r="BW2" s="31">
         <v>11</v>
       </c>
-      <c r="BX2" s="48">
+      <c r="BX2" s="31">
         <v>11</v>
       </c>
-      <c r="BY2" s="48">
+      <c r="BY2" s="31">
         <v>12</v>
       </c>
-      <c r="BZ2" s="48">
+      <c r="BZ2" s="31">
         <v>12</v>
       </c>
-      <c r="CA2" s="48">
+      <c r="CA2" s="31">
         <v>12</v>
       </c>
-      <c r="CB2" s="48">
+      <c r="CB2" s="31">
         <v>13</v>
       </c>
-      <c r="CC2" s="48">
+      <c r="CC2" s="31">
         <v>13</v>
       </c>
-      <c r="CD2" s="48">
+      <c r="CD2" s="31">
         <v>13</v>
       </c>
-      <c r="CE2" s="48">
+      <c r="CE2" s="31">
         <v>14</v>
       </c>
-      <c r="CF2" s="48">
+      <c r="CF2" s="31">
         <v>14</v>
       </c>
-      <c r="CG2" s="48">
+      <c r="CG2" s="31">
         <v>14</v>
       </c>
-      <c r="CH2" s="48">
+      <c r="CH2" s="31">
         <v>15</v>
       </c>
-      <c r="CI2" s="48">
+      <c r="CI2" s="31">
         <v>15</v>
       </c>
-      <c r="CJ2" s="48">
+      <c r="CJ2" s="31">
         <v>15</v>
       </c>
-      <c r="CK2" s="48">
+      <c r="CK2" s="31">
         <v>15</v>
       </c>
-      <c r="CL2" s="48">
+      <c r="CL2" s="31">
         <v>15</v>
       </c>
-      <c r="CM2" s="48">
+      <c r="CM2" s="31">
         <v>16</v>
       </c>
-      <c r="CN2" s="48">
+      <c r="CN2" s="31">
         <v>16</v>
       </c>
-      <c r="CO2" s="48">
+      <c r="CO2" s="31">
         <v>16</v>
       </c>
-      <c r="CP2" s="48">
+      <c r="CP2" s="31">
         <v>17</v>
       </c>
-      <c r="CQ2" s="48">
+      <c r="CQ2" s="31">
         <v>17</v>
       </c>
-      <c r="CR2" s="48">
+      <c r="CR2" s="31">
         <v>17</v>
       </c>
-      <c r="CS2" s="48">
+      <c r="CS2" s="31">
         <v>17</v>
       </c>
-      <c r="CT2" s="48">
+      <c r="CT2" s="31">
         <v>18</v>
       </c>
-      <c r="CU2" s="48">
+      <c r="CU2" s="31">
         <v>18</v>
       </c>
-      <c r="CV2" s="48">
+      <c r="CV2" s="31">
         <v>18</v>
       </c>
-      <c r="CW2" s="48">
+      <c r="CW2" s="31">
         <v>20</v>
       </c>
-      <c r="CX2" s="48">
+      <c r="CX2" s="31">
         <v>20</v>
       </c>
-      <c r="CY2" s="48">
+      <c r="CY2" s="31">
         <v>20</v>
       </c>
-      <c r="CZ2" s="48">
+      <c r="CZ2" s="31">
         <v>20</v>
       </c>
-      <c r="DA2" s="48">
+      <c r="DA2" s="31">
         <v>21</v>
       </c>
-      <c r="DB2" s="48">
+      <c r="DB2" s="31">
         <v>21</v>
       </c>
-      <c r="DC2" s="48">
+      <c r="DC2" s="31">
         <v>22</v>
       </c>
-      <c r="DD2" s="48">
+      <c r="DD2" s="31">
         <v>22</v>
       </c>
-      <c r="DE2" s="48">
+      <c r="DE2" s="31">
         <v>22</v>
       </c>
-      <c r="DF2" s="48">
+      <c r="DF2" s="31">
         <v>23</v>
       </c>
-      <c r="DG2" s="48">
+      <c r="DG2" s="31">
         <v>23</v>
       </c>
-      <c r="DH2" s="48">
+      <c r="DH2" s="31">
         <v>23</v>
       </c>
-      <c r="DI2" s="48">
+      <c r="DI2" s="31">
         <v>23</v>
       </c>
-      <c r="DJ2" s="48">
+      <c r="DJ2" s="31">
         <v>24</v>
       </c>
-      <c r="DK2" s="48">
+      <c r="DK2" s="31">
         <v>24</v>
       </c>
-      <c r="DL2" s="48">
+      <c r="DL2" s="31">
         <v>24</v>
       </c>
-      <c r="DM2" s="48">
+      <c r="DM2" s="31">
         <v>25</v>
       </c>
-      <c r="DN2" s="48">
+      <c r="DN2" s="31">
         <v>25</v>
       </c>
-      <c r="DO2" s="48">
+      <c r="DO2" s="31">
         <v>25</v>
       </c>
-      <c r="DP2" s="48">
+      <c r="DP2" s="31">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="32">
         <f>COUNTA(B1:DP1)</f>
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:120" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -6262,20 +6133,20 @@
     </row>
     <row r="13" spans="1:120" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:120" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:120" ht="36" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -6295,7 +6166,7 @@
       </c>
     </row>
     <row r="16" spans="1:120" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
@@ -6350,15 +6221,15 @@
         <v>[-1,95; 2,11)</v>
       </c>
       <c r="D18" s="8">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H18)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H19)</f>
+        <f t="shared" ref="D18:D24" si="2">COUNTIF($B$1:$DP$1,"&gt;="&amp;H18)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H19)</f>
         <v>27</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:E24" si="2">D18/$B$8</f>
+        <f t="shared" ref="E18:E24" si="3">D18/$B$8</f>
         <v>0.22689075630252101</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" ref="F18:F23" si="3">AVERAGE(H18,H19)</f>
+        <f t="shared" ref="F18:F23" si="4">AVERAGE(H18,H19)</f>
         <v>7.9822748475758321E-2</v>
       </c>
       <c r="G18" s="14">
@@ -6379,15 +6250,15 @@
         <v>[2,11; 6,16)</v>
       </c>
       <c r="D19" s="8">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H19)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H20)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18487394957983194</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1330379141262643</v>
       </c>
       <c r="G19" s="14">
@@ -6408,15 +6279,15 @@
         <v>[6,16; 10,21)</v>
       </c>
       <c r="D20" s="8">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H20)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H21)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1092436974789916</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.186253079776769</v>
       </c>
       <c r="G20" s="14">
@@ -6424,7 +6295,7 @@
         <v>2.6952355849447964E-2</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H25" si="4">$B$9+H19</f>
+        <f t="shared" ref="H20:H25" si="5">$B$9+H19</f>
         <v>6.1596454969515166</v>
       </c>
     </row>
@@ -6437,15 +6308,15 @@
         <v>[10,21; 14,27)</v>
       </c>
       <c r="D21" s="8">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H21)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H22)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2436974789915971E-2</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.239468245427275</v>
       </c>
       <c r="G21" s="14">
@@ -6453,7 +6324,7 @@
         <v>2.2805839564917506E-2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.212860662602022</v>
       </c>
     </row>
@@ -6466,15 +6337,15 @@
         <v>[14,27; 18,32)</v>
       </c>
       <c r="D22" s="8">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H22)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H23)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12605042016806722</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.292683411077782</v>
       </c>
       <c r="G22" s="14">
@@ -6482,7 +6353,7 @@
         <v>3.1098872133978418E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.266075828252529</v>
       </c>
     </row>
@@ -6495,15 +6366,15 @@
         <v>[18,32; 22,37)</v>
       </c>
       <c r="D23" s="8">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H23)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H24)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5630252100840331E-2</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.345898576728288</v>
       </c>
       <c r="G23" s="14">
@@ -6511,7 +6382,7 @@
         <v>1.8659323280387049E-2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.319290993903035</v>
       </c>
     </row>
@@ -6524,11 +6395,11 @@
         <v>[22,37; 26,43)</v>
       </c>
       <c r="D24" s="19">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H24)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H25)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2436974789915971E-2</v>
       </c>
       <c r="F24" s="20">
@@ -6540,7 +6411,7 @@
         <v>2.2805839564917506E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.372506159553541</v>
       </c>
     </row>
@@ -6560,22 +6431,22 @@
       <c r="F25" s="15"/>
       <c r="G25" s="21"/>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.425721325204048</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F57" s="22">
@@ -6596,31 +6467,31 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F60" s="22">
-        <f t="shared" ref="F60:F65" si="5">F59+E19</f>
+        <f t="shared" ref="F60:F64" si="6">F59+E19</f>
         <v>0.50420168067226889</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F61" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61344537815126055</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F62" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F63" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83193277310924374</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F64" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90756302521008403</v>
       </c>
     </row>
@@ -6631,10 +6502,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="46"/>
+      <c r="B73" s="44"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
@@ -6777,13 +6648,13 @@
       </c>
     </row>
     <row r="98" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
     </row>
     <row r="99" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B99" s="23" t="s">
@@ -6800,7 +6671,7 @@
         <f>SUM(B110:L110)/D17</f>
         <v>1.5041322314049588</v>
       </c>
-      <c r="F99" s="39">
+      <c r="F99" s="46">
         <f>E107/E108</f>
         <v>0.98444686863842923</v>
       </c>
@@ -6820,7 +6691,7 @@
         <f>SUM(M110:AM110)/D18</f>
         <v>23.758494031221311</v>
       </c>
-      <c r="F100" s="39"/>
+      <c r="F100" s="46"/>
     </row>
     <row r="101" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B101" s="23" t="s">
@@ -6837,7 +6708,7 @@
         <f>SUM(AN111:BI111)/D19</f>
         <v>14.190298042149896</v>
       </c>
-      <c r="F101" s="39"/>
+      <c r="F101" s="46"/>
     </row>
     <row r="102" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B102" s="23" t="s">
@@ -6854,7 +6725,7 @@
         <f>SUM(BJ112:BV112)/D20</f>
         <v>14.535918626827716</v>
       </c>
-      <c r="F102" s="39"/>
+      <c r="F102" s="46"/>
     </row>
     <row r="103" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B103" s="23" t="s">
@@ -6871,7 +6742,7 @@
         <f>SUM(BW113:CG113)/D21</f>
         <v>19.217859064012906</v>
       </c>
-      <c r="F103" s="39"/>
+      <c r="F103" s="46"/>
     </row>
     <row r="104" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B104" s="23" t="s">
@@ -6888,7 +6759,7 @@
         <f>SUM(CH114:CV114)/D22</f>
         <v>14.956473829201096</v>
       </c>
-      <c r="F104" s="39"/>
+      <c r="F104" s="46"/>
     </row>
     <row r="105" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B105" s="23" t="s">
@@ -6905,7 +6776,7 @@
         <f>SUM(CW115:DE115)/D23</f>
         <v>21.518518518518526</v>
       </c>
-      <c r="F105" s="39"/>
+      <c r="F105" s="46"/>
     </row>
     <row r="106" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B106" s="23" t="s">
@@ -6922,7 +6793,7 @@
         <f>SUM(DF116:DP116)/D24</f>
         <v>11.244668911335575</v>
       </c>
-      <c r="F106" s="39"/>
+      <c r="F106" s="46"/>
     </row>
     <row r="107" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B107" s="23" t="s">
@@ -6939,7 +6810,7 @@
         <f>(POWER(C99-C107,2)*D17+POWER(C100-C107,2)*D18+POWER(C101-C107,2)*D19+POWER(C102-C107,2)*D20+POWER(C103-C107,2)*D21+POWER(C104-C107,2)*D22+POWER(C105-C107,2)*D23+POWER(C106-C107,2)*D24)/B3</f>
         <v>71.843418367392658</v>
       </c>
-      <c r="F107" s="39"/>
+      <c r="F107" s="46"/>
     </row>
     <row r="108" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B108" s="23"/>
@@ -6951,4858 +6822,4767 @@
         <f>SUM(B118:DP118)/B3</f>
         <v>72.978461973024508</v>
       </c>
-      <c r="F108" s="39"/>
+      <c r="F108" s="46"/>
     </row>
     <row r="110" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B110">
-        <f>POWER(B$2-$C99,2)</f>
+        <f t="shared" ref="B110:AG110" si="7">POWER(B$2-$C99,2)</f>
         <v>5.5867768595041332</v>
       </c>
       <c r="C110">
-        <f>POWER(C$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>1.8595041322314052</v>
       </c>
       <c r="D110">
-        <f>POWER(D$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>1.8595041322314052</v>
       </c>
       <c r="E110">
-        <f>POWER(E$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.13223140495867777</v>
       </c>
       <c r="F110">
-        <f>POWER(F$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.13223140495867777</v>
       </c>
       <c r="G110">
-        <f>POWER(G$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="H110">
-        <f>POWER(H$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="I110">
-        <f>POWER(I$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="J110">
-        <f>POWER(J$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="K110">
-        <f>POWER(K$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>2.6776859504132227</v>
       </c>
       <c r="L110">
-        <f>POWER(L$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>2.6776859504132227</v>
       </c>
       <c r="M110">
-        <f>POWER(M$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>6.9504132231404956</v>
       </c>
       <c r="N110">
-        <f>POWER(N$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>6.9504132231404956</v>
       </c>
       <c r="O110">
-        <f>POWER(O$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="P110">
-        <f>POWER(P$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="Q110">
-        <f>POWER(Q$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="R110">
-        <f>POWER(R$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="S110">
-        <f>POWER(S$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="T110">
-        <f>POWER(T$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="U110">
-        <f>POWER(U$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="V110">
-        <f>POWER(V$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="W110">
-        <f>POWER(W$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="X110">
-        <f>POWER(X$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="Y110">
-        <f>POWER(Y$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="Z110">
-        <f>POWER(Z$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="AA110">
-        <f>POWER(AA$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="AB110">
-        <f>POWER(AB$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AC110">
-        <f>POWER(AC$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AD110">
-        <f>POWER(AD$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AE110">
-        <f>POWER(AE$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AF110">
-        <f>POWER(AF$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AG110">
-        <f>POWER(AG$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AH110">
-        <f>POWER(AH$2-$C99,2)</f>
+        <f t="shared" ref="AH110:BM110" si="8">POWER(AH$2-$C99,2)</f>
         <v>31.768595041322317</v>
       </c>
       <c r="AI110">
-        <f>POWER(AI$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AJ110">
-        <f>POWER(AJ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AK110">
-        <f>POWER(AK$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AL110">
-        <f>POWER(AL$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AM110">
-        <f>POWER(AM$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AN110">
-        <f>POWER(AN$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AO110">
-        <f>POWER(AO$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AP110">
-        <f>POWER(AP$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AQ110">
-        <f>POWER(AQ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AR110">
-        <f>POWER(AR$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AS110">
-        <f>POWER(AS$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AT110">
-        <f>POWER(AT$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AU110">
-        <f>POWER(AU$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AV110">
-        <f>POWER(AV$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AW110">
-        <f>POWER(AW$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AX110">
-        <f>POWER(AX$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AY110">
-        <f>POWER(AY$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AZ110">
-        <f>POWER(AZ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="BA110">
-        <f>POWER(BA$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="BB110">
-        <f>POWER(BB$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BC110">
-        <f>POWER(BC$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BD110">
-        <f>POWER(BD$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BE110">
-        <f>POWER(BE$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BF110">
-        <f>POWER(BF$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BG110">
-        <f>POWER(BG$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BH110">
-        <f>POWER(BH$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BI110">
-        <f>POWER(BI$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BJ110">
-        <f>POWER(BJ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>113.13223140495869</v>
       </c>
       <c r="BK110">
-        <f>POWER(BK$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>113.13223140495869</v>
       </c>
       <c r="BL110">
-        <f>POWER(BL$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>113.13223140495869</v>
       </c>
       <c r="BM110">
-        <f>POWER(BM$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BN110">
-        <f>POWER(BN$2-$C99,2)</f>
+        <f t="shared" ref="BN110:CS110" si="9">POWER(BN$2-$C99,2)</f>
         <v>135.40495867768595</v>
       </c>
       <c r="BO110">
-        <f>POWER(BO$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BP110">
-        <f>POWER(BP$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BQ110">
-        <f>POWER(BQ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BR110">
-        <f>POWER(BR$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>159.67768595041323</v>
       </c>
       <c r="BS110">
-        <f>POWER(BS$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>159.67768595041323</v>
       </c>
       <c r="BT110">
-        <f>POWER(BT$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>185.95041322314052</v>
       </c>
       <c r="BU110">
-        <f>POWER(BU$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>185.95041322314052</v>
       </c>
       <c r="BV110">
-        <f>POWER(BV$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>185.95041322314052</v>
       </c>
       <c r="BW110">
-        <f>POWER(BW$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>214.22314049586777</v>
       </c>
       <c r="BX110">
-        <f>POWER(BX$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>214.22314049586777</v>
       </c>
       <c r="BY110">
-        <f>POWER(BY$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>244.49586776859505</v>
       </c>
       <c r="BZ110">
-        <f>POWER(BZ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>244.49586776859505</v>
       </c>
       <c r="CA110">
-        <f>POWER(CA$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>244.49586776859505</v>
       </c>
       <c r="CB110">
-        <f>POWER(CB$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>276.76859504132233</v>
       </c>
       <c r="CC110">
-        <f>POWER(CC$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>276.76859504132233</v>
       </c>
       <c r="CD110">
-        <f>POWER(CD$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>276.76859504132233</v>
       </c>
       <c r="CE110">
-        <f>POWER(CE$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>311.04132231404958</v>
       </c>
       <c r="CF110">
-        <f>POWER(CF$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>311.04132231404958</v>
       </c>
       <c r="CG110">
-        <f>POWER(CG$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>311.04132231404958</v>
       </c>
       <c r="CH110">
-        <f>POWER(CH$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CI110">
-        <f>POWER(CI$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CJ110">
-        <f>POWER(CJ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CK110">
-        <f>POWER(CK$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CL110">
-        <f>POWER(CL$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CM110">
-        <f>POWER(CM$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>385.58677685950414</v>
       </c>
       <c r="CN110">
-        <f>POWER(CN$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>385.58677685950414</v>
       </c>
       <c r="CO110">
-        <f>POWER(CO$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>385.58677685950414</v>
       </c>
       <c r="CP110">
-        <f>POWER(CP$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CQ110">
-        <f>POWER(CQ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CR110">
-        <f>POWER(CR$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CS110">
-        <f>POWER(CS$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CT110">
-        <f>POWER(CT$2-$C99,2)</f>
+        <f t="shared" ref="CT110:DP110" si="10">POWER(CT$2-$C99,2)</f>
         <v>468.1322314049587</v>
       </c>
       <c r="CU110">
-        <f>POWER(CU$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>468.1322314049587</v>
       </c>
       <c r="CV110">
-        <f>POWER(CV$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>468.1322314049587</v>
       </c>
       <c r="CW110">
-        <f>POWER(CW$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="CX110">
-        <f>POWER(CX$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="CY110">
-        <f>POWER(CY$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="CZ110">
-        <f>POWER(CZ$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="DA110">
-        <f>POWER(DA$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>606.95041322314046</v>
       </c>
       <c r="DB110">
-        <f>POWER(DB$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>606.95041322314046</v>
       </c>
       <c r="DC110">
-        <f>POWER(DC$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>657.22314049586782</v>
       </c>
       <c r="DD110">
-        <f>POWER(DD$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>657.22314049586782</v>
       </c>
       <c r="DE110">
-        <f>POWER(DE$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>657.22314049586782</v>
       </c>
       <c r="DF110">
-        <f>POWER(DF$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DG110">
-        <f>POWER(DG$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DH110">
-        <f>POWER(DH$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DI110">
-        <f>POWER(DI$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DJ110">
-        <f>POWER(DJ$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>763.76859504132233</v>
       </c>
       <c r="DK110">
-        <f>POWER(DK$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>763.76859504132233</v>
       </c>
       <c r="DL110">
-        <f>POWER(DL$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>763.76859504132233</v>
       </c>
       <c r="DM110">
-        <f>POWER(DM$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>820.04132231404958</v>
       </c>
       <c r="DN110">
-        <f>POWER(DN$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>820.04132231404958</v>
       </c>
       <c r="DO110">
-        <f>POWER(DO$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>820.04132231404958</v>
       </c>
       <c r="DP110">
-        <f>POWER(DP$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>878.31404958677683</v>
       </c>
     </row>
     <row r="111" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B111">
-        <f>POWER(B$2-$C100,2)</f>
+        <f t="shared" ref="B111:AG111" si="11">POWER(B$2-$C100,2)</f>
         <v>51.096021947873794</v>
       </c>
       <c r="C111">
-        <f>POWER(C$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>37.799725651577504</v>
       </c>
       <c r="D111">
-        <f>POWER(D$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>37.799725651577504</v>
       </c>
       <c r="E111">
-        <f>POWER(E$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>26.503429355281206</v>
       </c>
       <c r="F111">
-        <f>POWER(F$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>26.503429355281206</v>
       </c>
       <c r="G111">
-        <f>POWER(G$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="H111">
-        <f>POWER(H$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="I111">
-        <f>POWER(I$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="J111">
-        <f>POWER(J$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="K111">
-        <f>POWER(K$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>9.9108367626886125</v>
       </c>
       <c r="L111">
-        <f>POWER(L$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>9.9108367626886125</v>
       </c>
       <c r="M111">
-        <f>POWER(M$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>4.6145404663923175</v>
       </c>
       <c r="N111">
-        <f>POWER(N$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>4.6145404663923175</v>
       </c>
       <c r="O111">
-        <f>POWER(O$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="P111">
-        <f>POWER(P$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="Q111">
-        <f>POWER(Q$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="R111">
-        <f>POWER(R$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="S111">
-        <f>POWER(S$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="T111">
-        <f>POWER(T$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="U111">
-        <f>POWER(U$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="V111">
-        <f>POWER(V$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="W111">
-        <f>POWER(W$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="X111">
-        <f>POWER(X$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="Y111">
-        <f>POWER(Y$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="Z111">
-        <f>POWER(Z$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="AA111">
-        <f>POWER(AA$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="AB111">
-        <f>POWER(AB$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AC111">
-        <f>POWER(AC$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AD111">
-        <f>POWER(AD$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AE111">
-        <f>POWER(AE$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AF111">
-        <f>POWER(AF$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AG111">
-        <f>POWER(AG$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AH111">
-        <f>POWER(AH$2-$C100,2)</f>
+        <f t="shared" ref="AH111:BM111" si="12">POWER(AH$2-$C100,2)</f>
         <v>0.72565157750342935</v>
       </c>
       <c r="AI111">
-        <f>POWER(AI$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AJ111">
-        <f>POWER(AJ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AK111">
-        <f>POWER(AK$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AL111">
-        <f>POWER(AL$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AM111">
-        <f>POWER(AM$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AN111">
-        <f>POWER(AN$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AO111">
-        <f>POWER(AO$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AP111">
-        <f>POWER(AP$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AQ111">
-        <f>POWER(AQ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AR111">
-        <f>POWER(AR$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AS111">
-        <f>POWER(AS$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AT111">
-        <f>POWER(AT$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AU111">
-        <f>POWER(AU$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AV111">
-        <f>POWER(AV$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AW111">
-        <f>POWER(AW$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="AX111">
-        <f>POWER(AX$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="AY111">
-        <f>POWER(AY$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="AZ111">
-        <f>POWER(AZ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="BA111">
-        <f>POWER(BA$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="BB111">
-        <f>POWER(BB$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BC111">
-        <f>POWER(BC$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BD111">
-        <f>POWER(BD$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BE111">
-        <f>POWER(BE$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BF111">
-        <f>POWER(BF$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BG111">
-        <f>POWER(BG$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BH111">
-        <f>POWER(BH$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BI111">
-        <f>POWER(BI$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BJ111">
-        <f>POWER(BJ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>34.244170096021953</v>
       </c>
       <c r="BK111">
-        <f>POWER(BK$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>34.244170096021953</v>
       </c>
       <c r="BL111">
-        <f>POWER(BL$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>34.244170096021953</v>
       </c>
       <c r="BM111">
-        <f>POWER(BM$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BN111">
-        <f>POWER(BN$2-$C100,2)</f>
+        <f t="shared" ref="BN111:CS111" si="13">POWER(BN$2-$C100,2)</f>
         <v>46.947873799725656</v>
       </c>
       <c r="BO111">
-        <f>POWER(BO$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BP111">
-        <f>POWER(BP$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BQ111">
-        <f>POWER(BQ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BR111">
-        <f>POWER(BR$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>61.651577503429358</v>
       </c>
       <c r="BS111">
-        <f>POWER(BS$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>61.651577503429358</v>
       </c>
       <c r="BT111">
-        <f>POWER(BT$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>78.355281207133046</v>
       </c>
       <c r="BU111">
-        <f>POWER(BU$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>78.355281207133046</v>
       </c>
       <c r="BV111">
-        <f>POWER(BV$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>78.355281207133046</v>
       </c>
       <c r="BW111">
-        <f>POWER(BW$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>97.058984910836756</v>
       </c>
       <c r="BX111">
-        <f>POWER(BX$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>97.058984910836756</v>
       </c>
       <c r="BY111">
-        <f>POWER(BY$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>117.76268861454045</v>
       </c>
       <c r="BZ111">
-        <f>POWER(BZ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>117.76268861454045</v>
       </c>
       <c r="CA111">
-        <f>POWER(CA$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>117.76268861454045</v>
       </c>
       <c r="CB111">
-        <f>POWER(CB$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>140.46639231824415</v>
       </c>
       <c r="CC111">
-        <f>POWER(CC$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>140.46639231824415</v>
       </c>
       <c r="CD111">
-        <f>POWER(CD$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>140.46639231824415</v>
       </c>
       <c r="CE111">
-        <f>POWER(CE$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>165.17009602194787</v>
       </c>
       <c r="CF111">
-        <f>POWER(CF$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>165.17009602194787</v>
       </c>
       <c r="CG111">
-        <f>POWER(CG$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>165.17009602194787</v>
       </c>
       <c r="CH111">
-        <f>POWER(CH$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CI111">
-        <f>POWER(CI$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CJ111">
-        <f>POWER(CJ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CK111">
-        <f>POWER(CK$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CL111">
-        <f>POWER(CL$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CM111">
-        <f>POWER(CM$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>220.57750342935526</v>
       </c>
       <c r="CN111">
-        <f>POWER(CN$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>220.57750342935526</v>
       </c>
       <c r="CO111">
-        <f>POWER(CO$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>220.57750342935526</v>
       </c>
       <c r="CP111">
-        <f>POWER(CP$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CQ111">
-        <f>POWER(CQ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CR111">
-        <f>POWER(CR$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CS111">
-        <f>POWER(CS$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CT111">
-        <f>POWER(CT$2-$C100,2)</f>
+        <f t="shared" ref="CT111:DP111" si="14">POWER(CT$2-$C100,2)</f>
         <v>283.98491083676265</v>
       </c>
       <c r="CU111">
-        <f>POWER(CU$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>283.98491083676265</v>
       </c>
       <c r="CV111">
-        <f>POWER(CV$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>283.98491083676265</v>
       </c>
       <c r="CW111">
-        <f>POWER(CW$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="CX111">
-        <f>POWER(CX$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="CY111">
-        <f>POWER(CY$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="CZ111">
-        <f>POWER(CZ$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="DA111">
-        <f>POWER(DA$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>394.09602194787379</v>
       </c>
       <c r="DB111">
-        <f>POWER(DB$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>394.09602194787379</v>
       </c>
       <c r="DC111">
-        <f>POWER(DC$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>434.79972565157749</v>
       </c>
       <c r="DD111">
-        <f>POWER(DD$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>434.79972565157749</v>
       </c>
       <c r="DE111">
-        <f>POWER(DE$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>434.79972565157749</v>
       </c>
       <c r="DF111">
-        <f>POWER(DF$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DG111">
-        <f>POWER(DG$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DH111">
-        <f>POWER(DH$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DI111">
-        <f>POWER(DI$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DJ111">
-        <f>POWER(DJ$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>522.20713305898494</v>
       </c>
       <c r="DK111">
-        <f>POWER(DK$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>522.20713305898494</v>
       </c>
       <c r="DL111">
-        <f>POWER(DL$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>522.20713305898494</v>
       </c>
       <c r="DM111">
-        <f>POWER(DM$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>568.91083676268863</v>
       </c>
       <c r="DN111">
-        <f>POWER(DN$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>568.91083676268863</v>
       </c>
       <c r="DO111">
-        <f>POWER(DO$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>568.91083676268863</v>
       </c>
       <c r="DP111">
-        <f>POWER(DP$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>617.61454046639233</v>
       </c>
     </row>
     <row r="112" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B112">
-        <f>POWER(B$2-$C101,2)</f>
+        <f t="shared" ref="B112:AG112" si="15">POWER(B$2-$C101,2)</f>
         <v>115.07438016528924</v>
       </c>
       <c r="C112">
-        <f>POWER(C$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>94.619834710743788</v>
       </c>
       <c r="D112">
-        <f>POWER(D$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>94.619834710743788</v>
       </c>
       <c r="E112">
-        <f>POWER(E$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>76.165289256198335</v>
       </c>
       <c r="F112">
-        <f>POWER(F$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>76.165289256198335</v>
       </c>
       <c r="G112">
-        <f>POWER(G$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="H112">
-        <f>POWER(H$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="I112">
-        <f>POWER(I$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="J112">
-        <f>POWER(J$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="K112">
-        <f>POWER(K$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>45.256198347107443</v>
       </c>
       <c r="L112">
-        <f>POWER(L$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>45.256198347107443</v>
       </c>
       <c r="M112">
-        <f>POWER(M$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>32.801652892561989</v>
       </c>
       <c r="N112">
-        <f>POWER(N$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>32.801652892561989</v>
       </c>
       <c r="O112">
-        <f>POWER(O$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="P112">
-        <f>POWER(P$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="Q112">
-        <f>POWER(Q$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="R112">
-        <f>POWER(R$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="S112">
-        <f>POWER(S$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="T112">
-        <f>POWER(T$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="U112">
-        <f>POWER(U$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="V112">
-        <f>POWER(V$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="W112">
-        <f>POWER(W$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="X112">
-        <f>POWER(X$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="Y112">
-        <f>POWER(Y$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="Z112">
-        <f>POWER(Z$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="AA112">
-        <f>POWER(AA$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="AB112">
-        <f>POWER(AB$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AC112">
-        <f>POWER(AC$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AD112">
-        <f>POWER(AD$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AE112">
-        <f>POWER(AE$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AF112">
-        <f>POWER(AF$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AG112">
-        <f>POWER(AG$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AH112">
-        <f>POWER(AH$2-$C101,2)</f>
+        <f t="shared" ref="AH112:BM112" si="16">POWER(AH$2-$C101,2)</f>
         <v>7.4380165289256208</v>
       </c>
       <c r="AI112">
-        <f>POWER(AI$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AJ112">
-        <f>POWER(AJ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AK112">
-        <f>POWER(AK$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AL112">
-        <f>POWER(AL$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AM112">
-        <f>POWER(AM$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AN112">
-        <f>POWER(AN$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AO112">
-        <f>POWER(AO$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AP112">
-        <f>POWER(AP$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AQ112">
-        <f>POWER(AQ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AR112">
-        <f>POWER(AR$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AS112">
-        <f>POWER(AS$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AT112">
-        <f>POWER(AT$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AU112">
-        <f>POWER(AU$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AV112">
-        <f>POWER(AV$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AW112">
-        <f>POWER(AW$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="AX112">
-        <f>POWER(AX$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="AY112">
-        <f>POWER(AY$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="AZ112">
-        <f>POWER(AZ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="BA112">
-        <f>POWER(BA$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="BB112">
-        <f>POWER(BB$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BC112">
-        <f>POWER(BC$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BD112">
-        <f>POWER(BD$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BE112">
-        <f>POWER(BE$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BF112">
-        <f>POWER(BF$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BG112">
-        <f>POWER(BG$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BH112">
-        <f>POWER(BH$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BI112">
-        <f>POWER(BI$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BJ112">
-        <f>POWER(BJ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>5.1652892561983457</v>
       </c>
       <c r="BK112">
-        <f>POWER(BK$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>5.1652892561983457</v>
       </c>
       <c r="BL112">
-        <f>POWER(BL$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>5.1652892561983457</v>
       </c>
       <c r="BM112">
-        <f>POWER(BM$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BN112">
-        <f>POWER(BN$2-$C101,2)</f>
+        <f t="shared" ref="BN112:CS112" si="17">POWER(BN$2-$C101,2)</f>
         <v>10.710743801652891</v>
       </c>
       <c r="BO112">
-        <f>POWER(BO$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BP112">
-        <f>POWER(BP$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BQ112">
-        <f>POWER(BQ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BR112">
-        <f>POWER(BR$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>18.256198347107436</v>
       </c>
       <c r="BS112">
-        <f>POWER(BS$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>18.256198347107436</v>
       </c>
       <c r="BT112">
-        <f>POWER(BT$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>27.801652892561982</v>
       </c>
       <c r="BU112">
-        <f>POWER(BU$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>27.801652892561982</v>
       </c>
       <c r="BV112">
-        <f>POWER(BV$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>27.801652892561982</v>
       </c>
       <c r="BW112">
-        <f>POWER(BW$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>39.347107438016529</v>
       </c>
       <c r="BX112">
-        <f>POWER(BX$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>39.347107438016529</v>
       </c>
       <c r="BY112">
-        <f>POWER(BY$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>52.892561983471069</v>
       </c>
       <c r="BZ112">
-        <f>POWER(BZ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>52.892561983471069</v>
       </c>
       <c r="CA112">
-        <f>POWER(CA$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>52.892561983471069</v>
       </c>
       <c r="CB112">
-        <f>POWER(CB$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>68.43801652892563</v>
       </c>
       <c r="CC112">
-        <f>POWER(CC$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>68.43801652892563</v>
       </c>
       <c r="CD112">
-        <f>POWER(CD$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>68.43801652892563</v>
       </c>
       <c r="CE112">
-        <f>POWER(CE$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>85.983471074380176</v>
       </c>
       <c r="CF112">
-        <f>POWER(CF$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>85.983471074380176</v>
       </c>
       <c r="CG112">
-        <f>POWER(CG$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>85.983471074380176</v>
       </c>
       <c r="CH112">
-        <f>POWER(CH$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CI112">
-        <f>POWER(CI$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CJ112">
-        <f>POWER(CJ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CK112">
-        <f>POWER(CK$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CL112">
-        <f>POWER(CL$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CM112">
-        <f>POWER(CM$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>127.07438016528927</v>
       </c>
       <c r="CN112">
-        <f>POWER(CN$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>127.07438016528927</v>
       </c>
       <c r="CO112">
-        <f>POWER(CO$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>127.07438016528927</v>
       </c>
       <c r="CP112">
-        <f>POWER(CP$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CQ112">
-        <f>POWER(CQ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CR112">
-        <f>POWER(CR$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CS112">
-        <f>POWER(CS$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CT112">
-        <f>POWER(CT$2-$C101,2)</f>
+        <f t="shared" ref="CT112:DP112" si="18">POWER(CT$2-$C101,2)</f>
         <v>176.16528925619838</v>
       </c>
       <c r="CU112">
-        <f>POWER(CU$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>176.16528925619838</v>
       </c>
       <c r="CV112">
-        <f>POWER(CV$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>176.16528925619838</v>
       </c>
       <c r="CW112">
-        <f>POWER(CW$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="CX112">
-        <f>POWER(CX$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="CY112">
-        <f>POWER(CY$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="CZ112">
-        <f>POWER(CZ$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="DA112">
-        <f>POWER(DA$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>264.801652892562</v>
       </c>
       <c r="DB112">
-        <f>POWER(DB$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>264.801652892562</v>
       </c>
       <c r="DC112">
-        <f>POWER(DC$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>298.34710743801656</v>
       </c>
       <c r="DD112">
-        <f>POWER(DD$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>298.34710743801656</v>
       </c>
       <c r="DE112">
-        <f>POWER(DE$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>298.34710743801656</v>
       </c>
       <c r="DF112">
-        <f>POWER(DF$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DG112">
-        <f>POWER(DG$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DH112">
-        <f>POWER(DH$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DI112">
-        <f>POWER(DI$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DJ112">
-        <f>POWER(DJ$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>371.43801652892563</v>
       </c>
       <c r="DK112">
-        <f>POWER(DK$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>371.43801652892563</v>
       </c>
       <c r="DL112">
-        <f>POWER(DL$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>371.43801652892563</v>
       </c>
       <c r="DM112">
-        <f>POWER(DM$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>410.98347107438019</v>
       </c>
       <c r="DN112">
-        <f>POWER(DN$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>410.98347107438019</v>
       </c>
       <c r="DO112">
-        <f>POWER(DO$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>410.98347107438019</v>
       </c>
       <c r="DP112">
-        <f>POWER(DP$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>452.52892561983475</v>
       </c>
     </row>
     <row r="113" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B113">
-        <f>POWER(B$2-$C102,2)</f>
+        <f t="shared" ref="B113:AG113" si="19">POWER(B$2-$C102,2)</f>
         <v>206.91715976331363</v>
       </c>
       <c r="C113">
-        <f>POWER(C$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>179.14792899408286</v>
       </c>
       <c r="D113">
-        <f>POWER(D$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>179.14792899408286</v>
       </c>
       <c r="E113">
-        <f>POWER(E$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>153.37869822485209</v>
       </c>
       <c r="F113">
-        <f>POWER(F$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>153.37869822485209</v>
       </c>
       <c r="G113">
-        <f>POWER(G$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="H113">
-        <f>POWER(H$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="I113">
-        <f>POWER(I$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="J113">
-        <f>POWER(J$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="K113">
-        <f>POWER(K$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>107.84023668639054</v>
       </c>
       <c r="L113">
-        <f>POWER(L$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>107.84023668639054</v>
       </c>
       <c r="M113">
-        <f>POWER(M$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>88.071005917159766</v>
       </c>
       <c r="N113">
-        <f>POWER(N$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>88.071005917159766</v>
       </c>
       <c r="O113">
-        <f>POWER(O$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="P113">
-        <f>POWER(P$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="Q113">
-        <f>POWER(Q$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="R113">
-        <f>POWER(R$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="S113">
-        <f>POWER(S$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="T113">
-        <f>POWER(T$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="U113">
-        <f>POWER(U$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="V113">
-        <f>POWER(V$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="W113">
-        <f>POWER(W$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="X113">
-        <f>POWER(X$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="Y113">
-        <f>POWER(Y$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="Z113">
-        <f>POWER(Z$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="AA113">
-        <f>POWER(AA$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="AB113">
-        <f>POWER(AB$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AC113">
-        <f>POWER(AC$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AD113">
-        <f>POWER(AD$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AE113">
-        <f>POWER(AE$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AF113">
-        <f>POWER(AF$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AG113">
-        <f>POWER(AG$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AH113">
-        <f>POWER(AH$2-$C102,2)</f>
+        <f t="shared" ref="AH113:BM113" si="20">POWER(AH$2-$C102,2)</f>
         <v>40.76331360946746</v>
       </c>
       <c r="AI113">
-        <f>POWER(AI$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AJ113">
-        <f>POWER(AJ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AK113">
-        <f>POWER(AK$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AL113">
-        <f>POWER(AL$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AM113">
-        <f>POWER(AM$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AN113">
-        <f>POWER(AN$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AO113">
-        <f>POWER(AO$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AP113">
-        <f>POWER(AP$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AQ113">
-        <f>POWER(AQ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AR113">
-        <f>POWER(AR$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AS113">
-        <f>POWER(AS$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AT113">
-        <f>POWER(AT$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AU113">
-        <f>POWER(AU$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AV113">
-        <f>POWER(AV$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AW113">
-        <f>POWER(AW$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="AX113">
-        <f>POWER(AX$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="AY113">
-        <f>POWER(AY$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="AZ113">
-        <f>POWER(AZ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="BA113">
-        <f>POWER(BA$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="BB113">
-        <f>POWER(BB$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BC113">
-        <f>POWER(BC$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BD113">
-        <f>POWER(BD$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BE113">
-        <f>POWER(BE$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BF113">
-        <f>POWER(BF$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BG113">
-        <f>POWER(BG$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BH113">
-        <f>POWER(BH$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BI113">
-        <f>POWER(BI$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BJ113">
-        <f>POWER(BJ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>1.9171597633136106</v>
       </c>
       <c r="BK113">
-        <f>POWER(BK$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>1.9171597633136106</v>
       </c>
       <c r="BL113">
-        <f>POWER(BL$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>1.9171597633136106</v>
       </c>
       <c r="BM113">
-        <f>POWER(BM$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BN113">
-        <f>POWER(BN$2-$C102,2)</f>
+        <f t="shared" ref="BN113:CS113" si="21">POWER(BN$2-$C102,2)</f>
         <v>0.14792899408284055</v>
       </c>
       <c r="BO113">
-        <f>POWER(BO$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BP113">
-        <f>POWER(BP$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BQ113">
-        <f>POWER(BQ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BR113">
-        <f>POWER(BR$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.3786982248520705</v>
       </c>
       <c r="BS113">
-        <f>POWER(BS$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.3786982248520705</v>
       </c>
       <c r="BT113">
-        <f>POWER(BT$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>2.6094674556213007</v>
       </c>
       <c r="BU113">
-        <f>POWER(BU$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>2.6094674556213007</v>
       </c>
       <c r="BV113">
-        <f>POWER(BV$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>2.6094674556213007</v>
       </c>
       <c r="BW113">
-        <f>POWER(BW$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>6.8402366863905302</v>
       </c>
       <c r="BX113">
-        <f>POWER(BX$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>6.8402366863905302</v>
       </c>
       <c r="BY113">
-        <f>POWER(BY$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>13.071005917159761</v>
       </c>
       <c r="BZ113">
-        <f>POWER(BZ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>13.071005917159761</v>
       </c>
       <c r="CA113">
-        <f>POWER(CA$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>13.071005917159761</v>
       </c>
       <c r="CB113">
-        <f>POWER(CB$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>21.301775147928989</v>
       </c>
       <c r="CC113">
-        <f>POWER(CC$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>21.301775147928989</v>
       </c>
       <c r="CD113">
-        <f>POWER(CD$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>21.301775147928989</v>
       </c>
       <c r="CE113">
-        <f>POWER(CE$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>31.532544378698219</v>
       </c>
       <c r="CF113">
-        <f>POWER(CF$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>31.532544378698219</v>
       </c>
       <c r="CG113">
-        <f>POWER(CG$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>31.532544378698219</v>
       </c>
       <c r="CH113">
-        <f>POWER(CH$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CI113">
-        <f>POWER(CI$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CJ113">
-        <f>POWER(CJ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CK113">
-        <f>POWER(CK$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CL113">
-        <f>POWER(CL$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CM113">
-        <f>POWER(CM$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>57.994082840236679</v>
       </c>
       <c r="CN113">
-        <f>POWER(CN$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>57.994082840236679</v>
       </c>
       <c r="CO113">
-        <f>POWER(CO$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>57.994082840236679</v>
       </c>
       <c r="CP113">
-        <f>POWER(CP$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CQ113">
-        <f>POWER(CQ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CR113">
-        <f>POWER(CR$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CS113">
-        <f>POWER(CS$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CT113">
-        <f>POWER(CT$2-$C102,2)</f>
+        <f t="shared" ref="CT113:DP113" si="22">POWER(CT$2-$C102,2)</f>
         <v>92.455621301775139</v>
       </c>
       <c r="CU113">
-        <f>POWER(CU$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>92.455621301775139</v>
       </c>
       <c r="CV113">
-        <f>POWER(CV$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>92.455621301775139</v>
       </c>
       <c r="CW113">
-        <f>POWER(CW$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="CX113">
-        <f>POWER(CX$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="CY113">
-        <f>POWER(CY$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="CZ113">
-        <f>POWER(CZ$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="DA113">
-        <f>POWER(DA$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>159.14792899408283</v>
       </c>
       <c r="DB113">
-        <f>POWER(DB$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>159.14792899408283</v>
       </c>
       <c r="DC113">
-        <f>POWER(DC$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>185.37869822485206</v>
       </c>
       <c r="DD113">
-        <f>POWER(DD$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>185.37869822485206</v>
       </c>
       <c r="DE113">
-        <f>POWER(DE$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>185.37869822485206</v>
       </c>
       <c r="DF113">
-        <f>POWER(DF$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DG113">
-        <f>POWER(DG$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DH113">
-        <f>POWER(DH$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DI113">
-        <f>POWER(DI$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DJ113">
-        <f>POWER(DJ$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>243.84023668639051</v>
       </c>
       <c r="DK113">
-        <f>POWER(DK$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>243.84023668639051</v>
       </c>
       <c r="DL113">
-        <f>POWER(DL$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>243.84023668639051</v>
       </c>
       <c r="DM113">
-        <f>POWER(DM$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>276.07100591715971</v>
       </c>
       <c r="DN113">
-        <f>POWER(DN$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>276.07100591715971</v>
       </c>
       <c r="DO113">
-        <f>POWER(DO$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>276.07100591715971</v>
       </c>
       <c r="DP113">
-        <f>POWER(DP$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>310.30177514792894</v>
       </c>
     </row>
     <row r="114" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B114">
-        <f>POWER(B$2-$C103,2)</f>
+        <f t="shared" ref="B114:AG114" si="23">POWER(B$2-$C103,2)</f>
         <v>347.31404958677689</v>
       </c>
       <c r="C114">
-        <f>POWER(C$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>311.04132231404958</v>
       </c>
       <c r="D114">
-        <f>POWER(D$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>311.04132231404958</v>
       </c>
       <c r="E114">
-        <f>POWER(E$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>276.76859504132233</v>
       </c>
       <c r="F114">
-        <f>POWER(F$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>276.76859504132233</v>
       </c>
       <c r="G114">
-        <f>POWER(G$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="H114">
-        <f>POWER(H$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="I114">
-        <f>POWER(I$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="J114">
-        <f>POWER(J$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="K114">
-        <f>POWER(K$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>214.22314049586777</v>
       </c>
       <c r="L114">
-        <f>POWER(L$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>214.22314049586777</v>
       </c>
       <c r="M114">
-        <f>POWER(M$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>185.95041322314052</v>
       </c>
       <c r="N114">
-        <f>POWER(N$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>185.95041322314052</v>
       </c>
       <c r="O114">
-        <f>POWER(O$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="P114">
-        <f>POWER(P$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="Q114">
-        <f>POWER(Q$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="R114">
-        <f>POWER(R$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="S114">
-        <f>POWER(S$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="T114">
-        <f>POWER(T$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="U114">
-        <f>POWER(U$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="V114">
-        <f>POWER(V$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="W114">
-        <f>POWER(W$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="X114">
-        <f>POWER(X$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="Y114">
-        <f>POWER(Y$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="Z114">
-        <f>POWER(Z$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="AA114">
-        <f>POWER(AA$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="AB114">
-        <f>POWER(AB$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AC114">
-        <f>POWER(AC$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AD114">
-        <f>POWER(AD$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AE114">
-        <f>POWER(AE$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AF114">
-        <f>POWER(AF$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AG114">
-        <f>POWER(AG$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AH114">
-        <f>POWER(AH$2-$C103,2)</f>
+        <f t="shared" ref="AH114:BM114" si="24">POWER(AH$2-$C103,2)</f>
         <v>113.13223140495869</v>
       </c>
       <c r="AI114">
-        <f>POWER(AI$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AJ114">
-        <f>POWER(AJ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AK114">
-        <f>POWER(AK$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AL114">
-        <f>POWER(AL$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AM114">
-        <f>POWER(AM$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AN114">
-        <f>POWER(AN$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AO114">
-        <f>POWER(AO$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AP114">
-        <f>POWER(AP$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AQ114">
-        <f>POWER(AQ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AR114">
-        <f>POWER(AR$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AS114">
-        <f>POWER(AS$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AT114">
-        <f>POWER(AT$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AU114">
-        <f>POWER(AU$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AV114">
-        <f>POWER(AV$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AW114">
-        <f>POWER(AW$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AX114">
-        <f>POWER(AX$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AY114">
-        <f>POWER(AY$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AZ114">
-        <f>POWER(AZ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="BA114">
-        <f>POWER(BA$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="BB114">
-        <f>POWER(BB$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BC114">
-        <f>POWER(BC$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BD114">
-        <f>POWER(BD$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BE114">
-        <f>POWER(BE$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BF114">
-        <f>POWER(BF$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BG114">
-        <f>POWER(BG$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BH114">
-        <f>POWER(BH$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BI114">
-        <f>POWER(BI$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BJ114">
-        <f>POWER(BJ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>31.768595041322317</v>
       </c>
       <c r="BK114">
-        <f>POWER(BK$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>31.768595041322317</v>
       </c>
       <c r="BL114">
-        <f>POWER(BL$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>31.768595041322317</v>
       </c>
       <c r="BM114">
-        <f>POWER(BM$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BN114">
-        <f>POWER(BN$2-$C103,2)</f>
+        <f t="shared" ref="BN114:CS114" si="25">POWER(BN$2-$C103,2)</f>
         <v>21.495867768595044</v>
       </c>
       <c r="BO114">
-        <f>POWER(BO$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BP114">
-        <f>POWER(BP$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BQ114">
-        <f>POWER(BQ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BR114">
-        <f>POWER(BR$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>13.223140495867771</v>
       </c>
       <c r="BS114">
-        <f>POWER(BS$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>13.223140495867771</v>
       </c>
       <c r="BT114">
-        <f>POWER(BT$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>6.9504132231404974</v>
       </c>
       <c r="BU114">
-        <f>POWER(BU$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>6.9504132231404974</v>
       </c>
       <c r="BV114">
-        <f>POWER(BV$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>6.9504132231404974</v>
       </c>
       <c r="BW114">
-        <f>POWER(BW$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>2.677685950413224</v>
       </c>
       <c r="BX114">
-        <f>POWER(BX$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>2.677685950413224</v>
       </c>
       <c r="BY114">
-        <f>POWER(BY$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.40495867768595084</v>
       </c>
       <c r="BZ114">
-        <f>POWER(BZ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.40495867768595084</v>
       </c>
       <c r="CA114">
-        <f>POWER(CA$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.40495867768595084</v>
       </c>
       <c r="CB114">
-        <f>POWER(CB$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.13223140495867744</v>
       </c>
       <c r="CC114">
-        <f>POWER(CC$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.13223140495867744</v>
       </c>
       <c r="CD114">
-        <f>POWER(CD$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.13223140495867744</v>
       </c>
       <c r="CE114">
-        <f>POWER(CE$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="CF114">
-        <f>POWER(CF$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="CG114">
-        <f>POWER(CG$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="CH114">
-        <f>POWER(CH$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CI114">
-        <f>POWER(CI$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CJ114">
-        <f>POWER(CJ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CK114">
-        <f>POWER(CK$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CL114">
-        <f>POWER(CL$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CM114">
-        <f>POWER(CM$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>11.314049586776857</v>
       </c>
       <c r="CN114">
-        <f>POWER(CN$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>11.314049586776857</v>
       </c>
       <c r="CO114">
-        <f>POWER(CO$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>11.314049586776857</v>
       </c>
       <c r="CP114">
-        <f>POWER(CP$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CQ114">
-        <f>POWER(CQ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CR114">
-        <f>POWER(CR$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CS114">
-        <f>POWER(CS$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CT114">
-        <f>POWER(CT$2-$C103,2)</f>
+        <f t="shared" ref="CT114:DP114" si="26">POWER(CT$2-$C103,2)</f>
         <v>28.76859504132231</v>
       </c>
       <c r="CU114">
-        <f>POWER(CU$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>28.76859504132231</v>
       </c>
       <c r="CV114">
-        <f>POWER(CV$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>28.76859504132231</v>
       </c>
       <c r="CW114">
-        <f>POWER(CW$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="CX114">
-        <f>POWER(CX$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="CY114">
-        <f>POWER(CY$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="CZ114">
-        <f>POWER(CZ$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="DA114">
-        <f>POWER(DA$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>69.950413223140487</v>
       </c>
       <c r="DB114">
-        <f>POWER(DB$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>69.950413223140487</v>
       </c>
       <c r="DC114">
-        <f>POWER(DC$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>87.67768595041322</v>
       </c>
       <c r="DD114">
-        <f>POWER(DD$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>87.67768595041322</v>
       </c>
       <c r="DE114">
-        <f>POWER(DE$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>87.67768595041322</v>
       </c>
       <c r="DF114">
-        <f>POWER(DF$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DG114">
-        <f>POWER(DG$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DH114">
-        <f>POWER(DH$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DI114">
-        <f>POWER(DI$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DJ114">
-        <f>POWER(DJ$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>129.13223140495867</v>
       </c>
       <c r="DK114">
-        <f>POWER(DK$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>129.13223140495867</v>
       </c>
       <c r="DL114">
-        <f>POWER(DL$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>129.13223140495867</v>
       </c>
       <c r="DM114">
-        <f>POWER(DM$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>152.85950413223139</v>
       </c>
       <c r="DN114">
-        <f>POWER(DN$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>152.85950413223139</v>
       </c>
       <c r="DO114">
-        <f>POWER(DO$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>152.85950413223139</v>
       </c>
       <c r="DP114">
-        <f>POWER(DP$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>178.58677685950411</v>
       </c>
     </row>
     <row r="115" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B115">
-        <f>POWER(B$2-$C104,2)</f>
+        <f t="shared" ref="B115:AG115" si="27">POWER(B$2-$C104,2)</f>
         <v>498.77777777777771</v>
       </c>
       <c r="C115">
-        <f>POWER(C$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>455.11111111111109</v>
       </c>
       <c r="D115">
-        <f>POWER(D$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>455.11111111111109</v>
       </c>
       <c r="E115">
-        <f>POWER(E$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>413.4444444444444</v>
       </c>
       <c r="F115">
-        <f>POWER(F$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>413.4444444444444</v>
       </c>
       <c r="G115">
-        <f>POWER(G$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="H115">
-        <f>POWER(H$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="I115">
-        <f>POWER(I$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="J115">
-        <f>POWER(J$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="K115">
-        <f>POWER(K$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>336.11111111111109</v>
       </c>
       <c r="L115">
-        <f>POWER(L$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>336.11111111111109</v>
       </c>
       <c r="M115">
-        <f>POWER(M$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>300.4444444444444</v>
       </c>
       <c r="N115">
-        <f>POWER(N$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>300.4444444444444</v>
       </c>
       <c r="O115">
-        <f>POWER(O$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="P115">
-        <f>POWER(P$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="Q115">
-        <f>POWER(Q$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="R115">
-        <f>POWER(R$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="S115">
-        <f>POWER(S$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="T115">
-        <f>POWER(T$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="U115">
-        <f>POWER(U$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="V115">
-        <f>POWER(V$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="W115">
-        <f>POWER(W$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="X115">
-        <f>POWER(X$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="Y115">
-        <f>POWER(Y$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="Z115">
-        <f>POWER(Z$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="AA115">
-        <f>POWER(AA$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="AB115">
-        <f>POWER(AB$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AC115">
-        <f>POWER(AC$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AD115">
-        <f>POWER(AD$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AE115">
-        <f>POWER(AE$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AF115">
-        <f>POWER(AF$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AG115">
-        <f>POWER(AG$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AH115">
-        <f>POWER(AH$2-$C104,2)</f>
+        <f t="shared" ref="AH115:BM115" si="28">POWER(AH$2-$C104,2)</f>
         <v>205.4444444444444</v>
       </c>
       <c r="AI115">
-        <f>POWER(AI$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AJ115">
-        <f>POWER(AJ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AK115">
-        <f>POWER(AK$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AL115">
-        <f>POWER(AL$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AM115">
-        <f>POWER(AM$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AN115">
-        <f>POWER(AN$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AO115">
-        <f>POWER(AO$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AP115">
-        <f>POWER(AP$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AQ115">
-        <f>POWER(AQ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AR115">
-        <f>POWER(AR$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AS115">
-        <f>POWER(AS$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AT115">
-        <f>POWER(AT$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AU115">
-        <f>POWER(AU$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AV115">
-        <f>POWER(AV$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AW115">
-        <f>POWER(AW$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="AX115">
-        <f>POWER(AX$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="AY115">
-        <f>POWER(AY$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="AZ115">
-        <f>POWER(AZ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="BA115">
-        <f>POWER(BA$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="BB115">
-        <f>POWER(BB$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BC115">
-        <f>POWER(BC$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BD115">
-        <f>POWER(BD$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BE115">
-        <f>POWER(BE$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BF115">
-        <f>POWER(BF$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BG115">
-        <f>POWER(BG$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BH115">
-        <f>POWER(BH$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BI115">
-        <f>POWER(BI$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BJ115">
-        <f>POWER(BJ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>87.111111111111086</v>
       </c>
       <c r="BK115">
-        <f>POWER(BK$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>87.111111111111086</v>
       </c>
       <c r="BL115">
-        <f>POWER(BL$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>87.111111111111086</v>
       </c>
       <c r="BM115">
-        <f>POWER(BM$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BN115">
-        <f>POWER(BN$2-$C104,2)</f>
+        <f t="shared" ref="BN115:CS115" si="29">POWER(BN$2-$C104,2)</f>
         <v>69.444444444444429</v>
       </c>
       <c r="BO115">
-        <f>POWER(BO$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BP115">
-        <f>POWER(BP$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BQ115">
-        <f>POWER(BQ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BR115">
-        <f>POWER(BR$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>53.777777777777757</v>
       </c>
       <c r="BS115">
-        <f>POWER(BS$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>53.777777777777757</v>
       </c>
       <c r="BT115">
-        <f>POWER(BT$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>40.111111111111093</v>
       </c>
       <c r="BU115">
-        <f>POWER(BU$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>40.111111111111093</v>
       </c>
       <c r="BV115">
-        <f>POWER(BV$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>40.111111111111093</v>
       </c>
       <c r="BW115">
-        <f>POWER(BW$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>28.444444444444432</v>
       </c>
       <c r="BX115">
-        <f>POWER(BX$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>28.444444444444432</v>
       </c>
       <c r="BY115">
-        <f>POWER(BY$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>18.777777777777768</v>
       </c>
       <c r="BZ115">
-        <f>POWER(BZ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>18.777777777777768</v>
       </c>
       <c r="CA115">
-        <f>POWER(CA$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>18.777777777777768</v>
       </c>
       <c r="CB115">
-        <f>POWER(CB$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>11.111111111111104</v>
       </c>
       <c r="CC115">
-        <f>POWER(CC$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>11.111111111111104</v>
       </c>
       <c r="CD115">
-        <f>POWER(CD$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>11.111111111111104</v>
       </c>
       <c r="CE115">
-        <f>POWER(CE$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>5.4444444444444393</v>
       </c>
       <c r="CF115">
-        <f>POWER(CF$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>5.4444444444444393</v>
       </c>
       <c r="CG115">
-        <f>POWER(CG$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>5.4444444444444393</v>
       </c>
       <c r="CH115">
-        <f>POWER(CH$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CI115">
-        <f>POWER(CI$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CJ115">
-        <f>POWER(CJ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CK115">
-        <f>POWER(CK$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CL115">
-        <f>POWER(CL$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CM115">
-        <f>POWER(CM$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.11111111111111033</v>
       </c>
       <c r="CN115">
-        <f>POWER(CN$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.11111111111111033</v>
       </c>
       <c r="CO115">
-        <f>POWER(CO$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.11111111111111033</v>
       </c>
       <c r="CP115">
-        <f>POWER(CP$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CQ115">
-        <f>POWER(CQ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CR115">
-        <f>POWER(CR$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CS115">
-        <f>POWER(CS$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CT115">
-        <f>POWER(CT$2-$C104,2)</f>
+        <f t="shared" ref="CT115:DP115" si="30">POWER(CT$2-$C104,2)</f>
         <v>2.7777777777777817</v>
       </c>
       <c r="CU115">
-        <f>POWER(CU$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>2.7777777777777817</v>
       </c>
       <c r="CV115">
-        <f>POWER(CV$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>2.7777777777777817</v>
       </c>
       <c r="CW115">
-        <f>POWER(CW$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="CX115">
-        <f>POWER(CX$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="CY115">
-        <f>POWER(CY$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="CZ115">
-        <f>POWER(CZ$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="DA115">
-        <f>POWER(DA$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>21.777777777777789</v>
       </c>
       <c r="DB115">
-        <f>POWER(DB$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>21.777777777777789</v>
       </c>
       <c r="DC115">
-        <f>POWER(DC$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>32.111111111111121</v>
       </c>
       <c r="DD115">
-        <f>POWER(DD$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>32.111111111111121</v>
       </c>
       <c r="DE115">
-        <f>POWER(DE$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>32.111111111111121</v>
       </c>
       <c r="DF115">
-        <f>POWER(DF$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DG115">
-        <f>POWER(DG$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DH115">
-        <f>POWER(DH$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DI115">
-        <f>POWER(DI$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DJ115">
-        <f>POWER(DJ$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>58.777777777777793</v>
       </c>
       <c r="DK115">
-        <f>POWER(DK$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>58.777777777777793</v>
       </c>
       <c r="DL115">
-        <f>POWER(DL$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>58.777777777777793</v>
       </c>
       <c r="DM115">
-        <f>POWER(DM$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>75.111111111111128</v>
       </c>
       <c r="DN115">
-        <f>POWER(DN$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>75.111111111111128</v>
       </c>
       <c r="DO115">
-        <f>POWER(DO$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>75.111111111111128</v>
       </c>
       <c r="DP115">
-        <f>POWER(DP$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>93.444444444444471</v>
       </c>
     </row>
     <row r="116" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B116">
-        <f>POWER(B$2-$C105,2)</f>
+        <f t="shared" ref="B116:AG116" si="31">POWER(B$2-$C105,2)</f>
         <v>723.01234567901236</v>
       </c>
       <c r="C116">
-        <f>POWER(C$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>670.23456790123464</v>
       </c>
       <c r="D116">
-        <f>POWER(D$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>670.23456790123464</v>
       </c>
       <c r="E116">
-        <f>POWER(E$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>619.45679012345681</v>
       </c>
       <c r="F116">
-        <f>POWER(F$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>619.45679012345681</v>
       </c>
       <c r="G116">
-        <f>POWER(G$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="H116">
-        <f>POWER(H$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="I116">
-        <f>POWER(I$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="J116">
-        <f>POWER(J$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="K116">
-        <f>POWER(K$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>523.90123456790127</v>
       </c>
       <c r="L116">
-        <f>POWER(L$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>523.90123456790127</v>
       </c>
       <c r="M116">
-        <f>POWER(M$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>479.1234567901235</v>
       </c>
       <c r="N116">
-        <f>POWER(N$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>479.1234567901235</v>
       </c>
       <c r="O116">
-        <f>POWER(O$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="P116">
-        <f>POWER(P$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="Q116">
-        <f>POWER(Q$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="R116">
-        <f>POWER(R$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="S116">
-        <f>POWER(S$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="T116">
-        <f>POWER(T$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="U116">
-        <f>POWER(U$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="V116">
-        <f>POWER(V$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="W116">
-        <f>POWER(W$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="X116">
-        <f>POWER(X$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="Y116">
-        <f>POWER(Y$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="Z116">
-        <f>POWER(Z$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="AA116">
-        <f>POWER(AA$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="AB116">
-        <f>POWER(AB$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AC116">
-        <f>POWER(AC$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AD116">
-        <f>POWER(AD$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AE116">
-        <f>POWER(AE$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AF116">
-        <f>POWER(AF$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AG116">
-        <f>POWER(AG$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AH116">
-        <f>POWER(AH$2-$C105,2)</f>
+        <f t="shared" ref="AH116:BM116" si="32">POWER(AH$2-$C105,2)</f>
         <v>356.79012345679013</v>
       </c>
       <c r="AI116">
-        <f>POWER(AI$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AJ116">
-        <f>POWER(AJ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AK116">
-        <f>POWER(AK$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AL116">
-        <f>POWER(AL$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AM116">
-        <f>POWER(AM$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AN116">
-        <f>POWER(AN$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AO116">
-        <f>POWER(AO$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AP116">
-        <f>POWER(AP$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AQ116">
-        <f>POWER(AQ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AR116">
-        <f>POWER(AR$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AS116">
-        <f>POWER(AS$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AT116">
-        <f>POWER(AT$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AU116">
-        <f>POWER(AU$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AV116">
-        <f>POWER(AV$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AW116">
-        <f>POWER(AW$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="AX116">
-        <f>POWER(AX$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="AY116">
-        <f>POWER(AY$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="AZ116">
-        <f>POWER(AZ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="BA116">
-        <f>POWER(BA$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="BB116">
-        <f>POWER(BB$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BC116">
-        <f>POWER(BC$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BD116">
-        <f>POWER(BD$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BE116">
-        <f>POWER(BE$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BF116">
-        <f>POWER(BF$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BG116">
-        <f>POWER(BG$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BH116">
-        <f>POWER(BH$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BI116">
-        <f>POWER(BI$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BJ116">
-        <f>POWER(BJ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>192.90123456790124</v>
       </c>
       <c r="BK116">
-        <f>POWER(BK$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>192.90123456790124</v>
       </c>
       <c r="BL116">
-        <f>POWER(BL$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>192.90123456790124</v>
       </c>
       <c r="BM116">
-        <f>POWER(BM$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BN116">
-        <f>POWER(BN$2-$C105,2)</f>
+        <f t="shared" ref="BN116:CS116" si="33">POWER(BN$2-$C105,2)</f>
         <v>166.12345679012347</v>
       </c>
       <c r="BO116">
-        <f>POWER(BO$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BP116">
-        <f>POWER(BP$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BQ116">
-        <f>POWER(BQ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BR116">
-        <f>POWER(BR$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>141.3456790123457</v>
       </c>
       <c r="BS116">
-        <f>POWER(BS$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>141.3456790123457</v>
       </c>
       <c r="BT116">
-        <f>POWER(BT$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>118.56790123456791</v>
       </c>
       <c r="BU116">
-        <f>POWER(BU$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>118.56790123456791</v>
       </c>
       <c r="BV116">
-        <f>POWER(BV$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>118.56790123456791</v>
       </c>
       <c r="BW116">
-        <f>POWER(BW$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>97.790123456790127</v>
       </c>
       <c r="BX116">
-        <f>POWER(BX$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>97.790123456790127</v>
       </c>
       <c r="BY116">
-        <f>POWER(BY$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>79.012345679012356</v>
       </c>
       <c r="BZ116">
-        <f>POWER(BZ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>79.012345679012356</v>
       </c>
       <c r="CA116">
-        <f>POWER(CA$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>79.012345679012356</v>
       </c>
       <c r="CB116">
-        <f>POWER(CB$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>62.234567901234577</v>
       </c>
       <c r="CC116">
-        <f>POWER(CC$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>62.234567901234577</v>
       </c>
       <c r="CD116">
-        <f>POWER(CD$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>62.234567901234577</v>
       </c>
       <c r="CE116">
-        <f>POWER(CE$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>47.456790123456798</v>
       </c>
       <c r="CF116">
-        <f>POWER(CF$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>47.456790123456798</v>
       </c>
       <c r="CG116">
-        <f>POWER(CG$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>47.456790123456798</v>
       </c>
       <c r="CH116">
-        <f>POWER(CH$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CI116">
-        <f>POWER(CI$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CJ116">
-        <f>POWER(CJ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CK116">
-        <f>POWER(CK$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CL116">
-        <f>POWER(CL$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CM116">
-        <f>POWER(CM$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>23.901234567901238</v>
       </c>
       <c r="CN116">
-        <f>POWER(CN$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>23.901234567901238</v>
       </c>
       <c r="CO116">
-        <f>POWER(CO$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>23.901234567901238</v>
       </c>
       <c r="CP116">
-        <f>POWER(CP$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CQ116">
-        <f>POWER(CQ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CR116">
-        <f>POWER(CR$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CS116">
-        <f>POWER(CS$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CT116">
-        <f>POWER(CT$2-$C105,2)</f>
+        <f t="shared" ref="CT116:DP116" si="34">POWER(CT$2-$C105,2)</f>
         <v>8.3456790123456805</v>
       </c>
       <c r="CU116">
-        <f>POWER(CU$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>8.3456790123456805</v>
       </c>
       <c r="CV116">
-        <f>POWER(CV$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>8.3456790123456805</v>
       </c>
       <c r="CW116">
-        <f>POWER(CW$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="CX116">
-        <f>POWER(CX$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="CY116">
-        <f>POWER(CY$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="CZ116">
-        <f>POWER(CZ$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="DA116">
-        <f>POWER(DA$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345592E-2</v>
       </c>
       <c r="DB116">
-        <f>POWER(DB$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345592E-2</v>
       </c>
       <c r="DC116">
-        <f>POWER(DC$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345669</v>
       </c>
       <c r="DD116">
-        <f>POWER(DD$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345669</v>
       </c>
       <c r="DE116">
-        <f>POWER(DE$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345669</v>
       </c>
       <c r="DF116">
-        <f>POWER(DF$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DG116">
-        <f>POWER(DG$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DH116">
-        <f>POWER(DH$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DI116">
-        <f>POWER(DI$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DJ116">
-        <f>POWER(DJ$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>9.6790123456790091</v>
       </c>
       <c r="DK116">
-        <f>POWER(DK$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>9.6790123456790091</v>
       </c>
       <c r="DL116">
-        <f>POWER(DL$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>9.6790123456790091</v>
       </c>
       <c r="DM116">
-        <f>POWER(DM$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>16.901234567901231</v>
       </c>
       <c r="DN116">
-        <f>POWER(DN$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>16.901234567901231</v>
       </c>
       <c r="DO116">
-        <f>POWER(DO$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>16.901234567901231</v>
       </c>
       <c r="DP116">
-        <f>POWER(DP$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>26.123456790123452</v>
       </c>
     </row>
     <row r="117" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B117">
-        <f>POWER(B$2-$C106,2)</f>
+        <f t="shared" ref="B117:AG117" si="35">POWER(B$2-$C106,2)</f>
         <v>905.46280991735534</v>
       </c>
       <c r="C117">
-        <f>POWER(C$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>846.2809917355371</v>
       </c>
       <c r="D117">
-        <f>POWER(D$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>846.2809917355371</v>
       </c>
       <c r="E117">
-        <f>POWER(E$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>789.09917355371897</v>
       </c>
       <c r="F117">
-        <f>POWER(F$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>789.09917355371897</v>
       </c>
       <c r="G117">
-        <f>POWER(G$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="H117">
-        <f>POWER(H$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="I117">
-        <f>POWER(I$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="J117">
-        <f>POWER(J$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="K117">
-        <f>POWER(K$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>680.7355371900826</v>
       </c>
       <c r="L117">
-        <f>POWER(L$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>680.7355371900826</v>
       </c>
       <c r="M117">
-        <f>POWER(M$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>629.55371900826447</v>
       </c>
       <c r="N117">
-        <f>POWER(N$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>629.55371900826447</v>
       </c>
       <c r="O117">
-        <f>POWER(O$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="P117">
-        <f>POWER(P$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="Q117">
-        <f>POWER(Q$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="R117">
-        <f>POWER(R$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="S117">
-        <f>POWER(S$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="T117">
-        <f>POWER(T$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="U117">
-        <f>POWER(U$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="V117">
-        <f>POWER(V$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="W117">
-        <f>POWER(W$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="X117">
-        <f>POWER(X$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="Y117">
-        <f>POWER(Y$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="Z117">
-        <f>POWER(Z$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="AA117">
-        <f>POWER(AA$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="AB117">
-        <f>POWER(AB$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AC117">
-        <f>POWER(AC$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AD117">
-        <f>POWER(AD$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AE117">
-        <f>POWER(AE$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AF117">
-        <f>POWER(AF$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AG117">
-        <f>POWER(AG$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AH117">
-        <f>POWER(AH$2-$C106,2)</f>
+        <f t="shared" ref="AH117:BM117" si="36">POWER(AH$2-$C106,2)</f>
         <v>488.00826446280985</v>
       </c>
       <c r="AI117">
-        <f>POWER(AI$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AJ117">
-        <f>POWER(AJ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AK117">
-        <f>POWER(AK$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AL117">
-        <f>POWER(AL$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AM117">
-        <f>POWER(AM$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AN117">
-        <f>POWER(AN$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AO117">
-        <f>POWER(AO$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AP117">
-        <f>POWER(AP$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AQ117">
-        <f>POWER(AQ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AR117">
-        <f>POWER(AR$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AS117">
-        <f>POWER(AS$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AT117">
-        <f>POWER(AT$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AU117">
-        <f>POWER(AU$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AV117">
-        <f>POWER(AV$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AW117">
-        <f>POWER(AW$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="AX117">
-        <f>POWER(AX$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="AY117">
-        <f>POWER(AY$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="AZ117">
-        <f>POWER(AZ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="BA117">
-        <f>POWER(BA$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="BB117">
-        <f>POWER(BB$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BC117">
-        <f>POWER(BC$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BD117">
-        <f>POWER(BD$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BE117">
-        <f>POWER(BE$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BF117">
-        <f>POWER(BF$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BG117">
-        <f>POWER(BG$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BH117">
-        <f>POWER(BH$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BI117">
-        <f>POWER(BI$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BJ117">
-        <f>POWER(BJ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>292.09917355371897</v>
       </c>
       <c r="BK117">
-        <f>POWER(BK$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>292.09917355371897</v>
       </c>
       <c r="BL117">
-        <f>POWER(BL$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>292.09917355371897</v>
       </c>
       <c r="BM117">
-        <f>POWER(BM$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BN117">
-        <f>POWER(BN$2-$C106,2)</f>
+        <f t="shared" ref="BN117:CS117" si="37">POWER(BN$2-$C106,2)</f>
         <v>258.91735537190078</v>
       </c>
       <c r="BO117">
-        <f>POWER(BO$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BP117">
-        <f>POWER(BP$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BQ117">
-        <f>POWER(BQ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BR117">
-        <f>POWER(BR$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>227.73553719008262</v>
       </c>
       <c r="BS117">
-        <f>POWER(BS$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>227.73553719008262</v>
       </c>
       <c r="BT117">
-        <f>POWER(BT$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>198.55371900826444</v>
       </c>
       <c r="BU117">
-        <f>POWER(BU$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>198.55371900826444</v>
       </c>
       <c r="BV117">
-        <f>POWER(BV$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>198.55371900826444</v>
       </c>
       <c r="BW117">
-        <f>POWER(BW$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>171.37190082644625</v>
       </c>
       <c r="BX117">
-        <f>POWER(BX$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>171.37190082644625</v>
       </c>
       <c r="BY117">
-        <f>POWER(BY$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>146.19008264462806</v>
       </c>
       <c r="BZ117">
-        <f>POWER(BZ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>146.19008264462806</v>
       </c>
       <c r="CA117">
-        <f>POWER(CA$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>146.19008264462806</v>
       </c>
       <c r="CB117">
-        <f>POWER(CB$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>123.00826446280989</v>
       </c>
       <c r="CC117">
-        <f>POWER(CC$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>123.00826446280989</v>
       </c>
       <c r="CD117">
-        <f>POWER(CD$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>123.00826446280989</v>
       </c>
       <c r="CE117">
-        <f>POWER(CE$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>101.82644628099172</v>
       </c>
       <c r="CF117">
-        <f>POWER(CF$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>101.82644628099172</v>
       </c>
       <c r="CG117">
-        <f>POWER(CG$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>101.82644628099172</v>
       </c>
       <c r="CH117">
-        <f>POWER(CH$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CI117">
-        <f>POWER(CI$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CJ117">
-        <f>POWER(CJ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CK117">
-        <f>POWER(CK$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CL117">
-        <f>POWER(CL$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CM117">
-        <f>POWER(CM$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>65.462809917355358</v>
       </c>
       <c r="CN117">
-        <f>POWER(CN$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>65.462809917355358</v>
       </c>
       <c r="CO117">
-        <f>POWER(CO$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>65.462809917355358</v>
       </c>
       <c r="CP117">
-        <f>POWER(CP$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CQ117">
-        <f>POWER(CQ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CR117">
-        <f>POWER(CR$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CS117">
-        <f>POWER(CS$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CT117">
-        <f>POWER(CT$2-$C106,2)</f>
+        <f t="shared" ref="CT117:DP117" si="38">POWER(CT$2-$C106,2)</f>
         <v>37.099173553718998</v>
       </c>
       <c r="CU117">
-        <f>POWER(CU$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>37.099173553718998</v>
       </c>
       <c r="CV117">
-        <f>POWER(CV$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>37.099173553718998</v>
       </c>
       <c r="CW117">
-        <f>POWER(CW$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="CX117">
-        <f>POWER(CX$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="CY117">
-        <f>POWER(CY$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="CZ117">
-        <f>POWER(CZ$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="DA117">
-        <f>POWER(DA$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>9.5537190082644567</v>
       </c>
       <c r="DB117">
-        <f>POWER(DB$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>9.5537190082644567</v>
       </c>
       <c r="DC117">
-        <f>POWER(DC$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>4.3719008264462769</v>
       </c>
       <c r="DD117">
-        <f>POWER(DD$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>4.3719008264462769</v>
       </c>
       <c r="DE117">
-        <f>POWER(DE$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>4.3719008264462769</v>
       </c>
       <c r="DF117">
-        <f>POWER(DF$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DG117">
-        <f>POWER(DG$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DH117">
-        <f>POWER(DH$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DI117">
-        <f>POWER(DI$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DJ117">
-        <f>POWER(DJ$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="DK117">
-        <f>POWER(DK$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="DL117">
-        <f>POWER(DL$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="DM117">
-        <f>POWER(DM$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>0.82644628099173734</v>
       </c>
       <c r="DN117">
-        <f>POWER(DN$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>0.82644628099173734</v>
       </c>
       <c r="DO117">
-        <f>POWER(DO$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>0.82644628099173734</v>
       </c>
       <c r="DP117">
-        <f>POWER(DP$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>3.6446280991735573</v>
       </c>
     </row>
     <row r="118" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118">
-        <f>POWER(B$2-$C107,2)</f>
+        <f t="shared" ref="B118:AG118" si="39">POWER(B$2-$C107,2)</f>
         <v>217.50052962361411</v>
       </c>
       <c r="C118">
-        <f>POWER(C$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>189.00473130428639</v>
       </c>
       <c r="D118">
-        <f>POWER(D$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>189.00473130428639</v>
       </c>
       <c r="E118">
-        <f>POWER(E$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>162.50893298495868</v>
       </c>
       <c r="F118">
-        <f>POWER(F$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>162.50893298495868</v>
       </c>
       <c r="G118">
-        <f>POWER(G$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="H118">
-        <f>POWER(H$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="I118">
-        <f>POWER(I$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="J118">
-        <f>POWER(J$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="K118">
-        <f>POWER(K$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>115.51733634630321</v>
       </c>
       <c r="L118">
-        <f>POWER(L$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>115.51733634630321</v>
       </c>
       <c r="M118">
-        <f>POWER(M$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>95.021538026975477</v>
       </c>
       <c r="N118">
-        <f>POWER(N$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>95.021538026975477</v>
       </c>
       <c r="O118">
-        <f>POWER(O$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="P118">
-        <f>POWER(P$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="Q118">
-        <f>POWER(Q$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="R118">
-        <f>POWER(R$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="S118">
-        <f>POWER(S$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="T118">
-        <f>POWER(T$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="U118">
-        <f>POWER(U$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="V118">
-        <f>POWER(V$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="W118">
-        <f>POWER(W$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="X118">
-        <f>POWER(X$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="Y118">
-        <f>POWER(Y$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="Z118">
-        <f>POWER(Z$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="AA118">
-        <f>POWER(AA$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="AB118">
-        <f>POWER(AB$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AC118">
-        <f>POWER(AC$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AD118">
-        <f>POWER(AD$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AE118">
-        <f>POWER(AE$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AF118">
-        <f>POWER(AF$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AG118">
-        <f>POWER(AG$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AH118">
-        <f>POWER(AH$2-$C107,2)</f>
+        <f t="shared" ref="AH118:BM118" si="40">POWER(AH$2-$C107,2)</f>
         <v>45.534143068992293</v>
       </c>
       <c r="AI118">
-        <f>POWER(AI$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AJ118">
-        <f>POWER(AJ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AK118">
-        <f>POWER(AK$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AL118">
-        <f>POWER(AL$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AM118">
-        <f>POWER(AM$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AN118">
-        <f>POWER(AN$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AO118">
-        <f>POWER(AO$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AP118">
-        <f>POWER(AP$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AQ118">
-        <f>POWER(AQ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AR118">
-        <f>POWER(AR$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AS118">
-        <f>POWER(AS$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AT118">
-        <f>POWER(AT$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AU118">
-        <f>POWER(AU$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AV118">
-        <f>POWER(AV$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AW118">
-        <f>POWER(AW$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="AX118">
-        <f>POWER(AX$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="AY118">
-        <f>POWER(AY$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="AZ118">
-        <f>POWER(AZ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="BA118">
-        <f>POWER(BA$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="BB118">
-        <f>POWER(BB$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BC118">
-        <f>POWER(BC$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BD118">
-        <f>POWER(BD$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BE118">
-        <f>POWER(BE$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BF118">
-        <f>POWER(BF$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BG118">
-        <f>POWER(BG$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BH118">
-        <f>POWER(BH$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BI118">
-        <f>POWER(BI$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BJ118">
-        <f>POWER(BJ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>3.0551514723536441</v>
       </c>
       <c r="BK118">
-        <f>POWER(BK$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>3.0551514723536441</v>
       </c>
       <c r="BL118">
-        <f>POWER(BL$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>3.0551514723536441</v>
       </c>
       <c r="BM118">
-        <f>POWER(BM$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BN118">
-        <f>POWER(BN$2-$C107,2)</f>
+        <f t="shared" ref="BN118:CS118" si="41">POWER(BN$2-$C107,2)</f>
         <v>0.55935315302591493</v>
       </c>
       <c r="BO118">
-        <f>POWER(BO$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BP118">
-        <f>POWER(BP$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BQ118">
-        <f>POWER(BQ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BR118">
-        <f>POWER(BR$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>6.3554833698185598E-2</v>
       </c>
       <c r="BS118">
-        <f>POWER(BS$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>6.3554833698185598E-2</v>
       </c>
       <c r="BT118">
-        <f>POWER(BT$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>1.5677565143704564</v>
       </c>
       <c r="BU118">
-        <f>POWER(BU$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>1.5677565143704564</v>
       </c>
       <c r="BV118">
-        <f>POWER(BV$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>1.5677565143704564</v>
       </c>
       <c r="BW118">
-        <f>POWER(BW$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>5.0719581950427273</v>
       </c>
       <c r="BX118">
-        <f>POWER(BX$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>5.0719581950427273</v>
       </c>
       <c r="BY118">
-        <f>POWER(BY$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>10.576159875714998</v>
       </c>
       <c r="BZ118">
-        <f>POWER(BZ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>10.576159875714998</v>
       </c>
       <c r="CA118">
-        <f>POWER(CA$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>10.576159875714998</v>
       </c>
       <c r="CB118">
-        <f>POWER(CB$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>18.080361556387267</v>
       </c>
       <c r="CC118">
-        <f>POWER(CC$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>18.080361556387267</v>
       </c>
       <c r="CD118">
-        <f>POWER(CD$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>18.080361556387267</v>
       </c>
       <c r="CE118">
-        <f>POWER(CE$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>27.584563237059537</v>
       </c>
       <c r="CF118">
-        <f>POWER(CF$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>27.584563237059537</v>
       </c>
       <c r="CG118">
-        <f>POWER(CG$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>27.584563237059537</v>
       </c>
       <c r="CH118">
-        <f>POWER(CH$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CI118">
-        <f>POWER(CI$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CJ118">
-        <f>POWER(CJ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CK118">
-        <f>POWER(CK$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CL118">
-        <f>POWER(CL$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CM118">
-        <f>POWER(CM$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>52.592966598404082</v>
       </c>
       <c r="CN118">
-        <f>POWER(CN$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>52.592966598404082</v>
       </c>
       <c r="CO118">
-        <f>POWER(CO$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>52.592966598404082</v>
       </c>
       <c r="CP118">
-        <f>POWER(CP$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CQ118">
-        <f>POWER(CQ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CR118">
-        <f>POWER(CR$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CS118">
-        <f>POWER(CS$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CT118">
-        <f>POWER(CT$2-$C107,2)</f>
+        <f t="shared" ref="CT118:DP118" si="42">POWER(CT$2-$C107,2)</f>
         <v>85.601369959748624</v>
       </c>
       <c r="CU118">
-        <f>POWER(CU$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>85.601369959748624</v>
       </c>
       <c r="CV118">
-        <f>POWER(CV$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>85.601369959748624</v>
       </c>
       <c r="CW118">
-        <f>POWER(CW$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="CX118">
-        <f>POWER(CX$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="CY118">
-        <f>POWER(CY$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="CZ118">
-        <f>POWER(CZ$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="DA118">
-        <f>POWER(DA$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>150.11397500176543</v>
       </c>
       <c r="DB118">
-        <f>POWER(DB$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>150.11397500176543</v>
       </c>
       <c r="DC118">
-        <f>POWER(DC$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>175.61817668243771</v>
       </c>
       <c r="DD118">
-        <f>POWER(DD$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>175.61817668243771</v>
       </c>
       <c r="DE118">
-        <f>POWER(DE$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>175.61817668243771</v>
       </c>
       <c r="DF118">
-        <f>POWER(DF$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DG118">
-        <f>POWER(DG$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DH118">
-        <f>POWER(DH$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DI118">
-        <f>POWER(DI$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DJ118">
-        <f>POWER(DJ$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>232.62658004378224</v>
       </c>
       <c r="DK118">
-        <f>POWER(DK$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>232.62658004378224</v>
       </c>
       <c r="DL118">
-        <f>POWER(DL$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>232.62658004378224</v>
       </c>
       <c r="DM118">
-        <f>POWER(DM$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>264.13078172445444</v>
       </c>
       <c r="DN118">
-        <f>POWER(DN$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>264.13078172445444</v>
       </c>
       <c r="DO118">
-        <f>POWER(DO$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>264.13078172445444</v>
       </c>
       <c r="DP118">
-        <f>POWER(DP$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>297.63498340512672</v>
       </c>
     </row>
     <row r="121" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B121" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="32"/>
+      <c r="B121" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="36"/>
     </row>
     <row r="122" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
       <c r="E122" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F122" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51">
+      <c r="I122" s="34"/>
+      <c r="J122" s="34">
         <f>POWER(D123-F123,2)/F123</f>
-        <v>0.89909811818310659</v>
-      </c>
-      <c r="J122" s="51"/>
-      <c r="K122" s="51">
-        <f>(C123-$B$74)/$B$79</f>
-        <v>-1.190833465952255</v>
-      </c>
-      <c r="L122" s="51">
-        <f>(B123-$B$74)/$B$79</f>
-        <v>-1.6712035759465542</v>
-      </c>
-      <c r="M122" s="51">
-        <f>NORMSDIST(K122)-0.5</f>
-        <v>-0.38314051590248566</v>
-      </c>
-      <c r="N122" s="51">
-        <f>NORMSDIST(L122)-0.5</f>
-        <v>-0.45265926290759756</v>
-      </c>
-      <c r="O122" s="51"/>
+        <v>1.0519982835096353</v>
+      </c>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="34"/>
+      <c r="O122" s="34"/>
+      <c r="P122" s="34"/>
     </row>
     <row r="123" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B123" s="29">
-        <f>$B$7</f>
-        <v>-6</v>
+      <c r="B123" s="51">
+        <f>F17</f>
+        <v>-3.9733924171747472</v>
       </c>
       <c r="C123" s="22">
-        <f>$B$9+B123</f>
-        <v>-1.9467848343494945</v>
+        <f>($B$74-B123)/$B$79</f>
+        <v>1.4310185209494046</v>
       </c>
       <c r="D123" s="22">
-        <f>D17</f>
+        <f t="shared" ref="D123:D130" si="43">D17</f>
         <v>11</v>
       </c>
       <c r="E123" s="22">
-        <f>$M122-$N122</f>
-        <v>6.9518747005111903E-2</v>
+        <f>1/SQRT(2*PI())*EXP(-POWER(C123, 2)/2)</f>
+        <v>0.14329561613217703</v>
       </c>
       <c r="F123" s="22">
-        <f>$B$3*E123</f>
-        <v>8.2727308936083173</v>
-      </c>
-      <c r="G123" s="50"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51">
+        <f>$B$3*$B$10*E123/$B$79</f>
+        <v>8.0838114339543274</v>
+      </c>
+      <c r="G123" s="33"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34">
         <f>POWER(D124-F124,2)/F124</f>
-        <v>10.775803391056074</v>
-      </c>
-      <c r="J123" s="51"/>
-      <c r="K123" s="51">
-        <f t="shared" ref="K123:K132" si="6">(C124-$B$74)/$B$79</f>
-        <v>-0.71046335595795551</v>
-      </c>
-      <c r="L123" s="51">
-        <f t="shared" ref="L123:L132" si="7">(B124-$B$74)/$B$79</f>
-        <v>-1.190833465952255</v>
-      </c>
-      <c r="M123" s="51">
-        <f>NORMSDIST(K123)-0.5</f>
-        <v>-0.26129157655557633</v>
-      </c>
-      <c r="N123" s="51">
-        <f t="shared" ref="N123:N132" si="8">NORMSDIST(L123)-0.5</f>
-        <v>-0.38314051590248566</v>
-      </c>
-      <c r="O123" s="51"/>
+        <v>11.218781823789298</v>
+      </c>
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="34"/>
+      <c r="N123" s="34"/>
+      <c r="O123" s="34"/>
+      <c r="P123" s="34"/>
     </row>
     <row r="124" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B124" s="22">
-        <f>$B$9+B123</f>
-        <v>-1.9467848343494945</v>
+      <c r="B124" s="51">
+        <f t="shared" ref="B124:B130" si="44">F18</f>
+        <v>7.9822748475758321E-2</v>
       </c>
       <c r="C124" s="22">
-        <f>$B$9+C123</f>
-        <v>2.1064303313010111</v>
+        <f t="shared" ref="C124:C130" si="45">($B$74-B124)/$B$79</f>
+        <v>0.95064841095510522</v>
       </c>
       <c r="D124" s="22">
-        <f>D18</f>
+        <f t="shared" si="43"/>
         <v>27</v>
       </c>
       <c r="E124" s="22">
-        <f>$M123-$N123</f>
-        <v>0.12184893934690932</v>
+        <f t="shared" ref="E124:E130" si="46">1/SQRT(2*PI())*EXP(-POWER(C124, 2)/2)</f>
+        <v>0.25390255334323364</v>
       </c>
       <c r="F124" s="22">
-        <f t="shared" ref="F124:F130" si="9">$B$3*E124</f>
-        <v>14.500023782282209</v>
-      </c>
-      <c r="H124" s="51"/>
-      <c r="I124" s="51">
-        <f t="shared" ref="I123:I132" si="10">POWER(D125-F125,2)/F125</f>
-        <v>0.14839190192433604</v>
-      </c>
-      <c r="J124" s="51"/>
-      <c r="K124" s="51">
-        <f t="shared" si="6"/>
-        <v>-0.23009324596365602</v>
-      </c>
-      <c r="L124" s="51">
-        <f t="shared" si="7"/>
-        <v>-0.71046335595795551</v>
-      </c>
-      <c r="M124" s="51">
-        <f t="shared" ref="M123:M132" si="11">NORMSDIST(K124)-0.5</f>
-        <v>-9.099034347581092E-2</v>
-      </c>
-      <c r="N124" s="51">
-        <f t="shared" si="8"/>
-        <v>-0.26129157655557633</v>
-      </c>
-      <c r="O124" s="51"/>
+        <f t="shared" ref="F124:F130" si="47">$B$3*$B$10*E124/$B$79</f>
+        <v>14.323539123018165</v>
+      </c>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34">
+        <f>POWER(D125-F125,2)/F125</f>
+        <v>0.16990782043176919</v>
+      </c>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="34"/>
+      <c r="O124" s="34"/>
+      <c r="P124" s="34"/>
     </row>
     <row r="125" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B125" s="22">
-        <f>$B$9+B124</f>
-        <v>2.1064303313010111</v>
+      <c r="B125" s="51">
+        <f t="shared" si="44"/>
+        <v>4.1330379141262643</v>
       </c>
       <c r="C125" s="22">
-        <f>$B$9+C124</f>
-        <v>6.1596454969515166</v>
+        <f t="shared" si="45"/>
+        <v>0.4702783009608057</v>
       </c>
       <c r="D125" s="22">
-        <f>D19</f>
+        <f t="shared" si="43"/>
         <v>22</v>
       </c>
       <c r="E125" s="22">
-        <f>$M124-$N124</f>
-        <v>0.17030123307976541</v>
+        <f t="shared" si="46"/>
+        <v>0.35717858885847942</v>
       </c>
       <c r="F125" s="22">
-        <f t="shared" si="9"/>
-        <v>20.265846736492083</v>
-      </c>
-      <c r="H125" s="51"/>
-      <c r="I125" s="51">
-        <f t="shared" si="10"/>
-        <v>4.0689410586038735</v>
-      </c>
-      <c r="J125" s="51"/>
-      <c r="K125" s="51">
-        <f t="shared" si="6"/>
-        <v>0.25027686403064342</v>
-      </c>
-      <c r="L125" s="51">
-        <f t="shared" si="7"/>
-        <v>-0.23009324596365602</v>
-      </c>
-      <c r="M125" s="51">
-        <f t="shared" si="11"/>
-        <v>9.8813376470038627E-2</v>
-      </c>
-      <c r="N125" s="51">
-        <f t="shared" si="8"/>
-        <v>-9.099034347581092E-2</v>
-      </c>
-      <c r="O125" s="51"/>
+        <f t="shared" si="47"/>
+        <v>20.149704774740069</v>
+      </c>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34">
+        <f>POWER(D126-F126,2)/F126</f>
+        <v>4.0141731512601426</v>
+      </c>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="34"/>
+      <c r="N125" s="34"/>
+      <c r="O125" s="34"/>
+      <c r="P125" s="34"/>
     </row>
     <row r="126" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B126" s="22">
-        <f>$B$9+B125</f>
-        <v>6.1596454969515166</v>
+      <c r="B126" s="51">
+        <f t="shared" si="44"/>
+        <v>8.186253079776769</v>
       </c>
       <c r="C126" s="22">
-        <f>$B$9+C125</f>
-        <v>10.212860662602022</v>
+        <f t="shared" si="45"/>
+        <v>-1.009180903349364E-2</v>
       </c>
       <c r="D126" s="22">
-        <f>D20</f>
+        <f t="shared" si="43"/>
         <v>13</v>
       </c>
       <c r="E126" s="22">
-        <f>$M125-$N125</f>
-        <v>0.18980371994584955</v>
+        <f t="shared" si="46"/>
+        <v>0.39892196585827489</v>
       </c>
       <c r="F126" s="22">
-        <f t="shared" si="9"/>
-        <v>22.586642673556096</v>
-      </c>
-      <c r="H126" s="51"/>
-      <c r="I126" s="51">
-        <f t="shared" si="10"/>
-        <v>4.1017093343468591</v>
-      </c>
-      <c r="J126" s="51"/>
-      <c r="K126" s="51">
-        <f t="shared" si="6"/>
-        <v>0.73064697402494294</v>
-      </c>
-      <c r="L126" s="51">
-        <f t="shared" si="7"/>
-        <v>0.25027686403064342</v>
-      </c>
-      <c r="M126" s="51">
-        <f t="shared" si="11"/>
-        <v>0.26750259399450249</v>
-      </c>
-      <c r="N126" s="51">
-        <f t="shared" si="8"/>
-        <v>9.8813376470038627E-2</v>
-      </c>
-      <c r="O126" s="51"/>
+        <f t="shared" si="47"/>
+        <v>22.504595994660921</v>
+      </c>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34">
+        <f>POWER(D127-F127,2)/F127</f>
+        <v>4.0188417292333867</v>
+      </c>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="34"/>
+      <c r="N126" s="34"/>
+      <c r="O126" s="34"/>
+      <c r="P126" s="34"/>
     </row>
     <row r="127" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B127" s="22">
-        <f t="shared" ref="B127:B130" si="12">$B$9+B126</f>
-        <v>10.212860662602022</v>
+      <c r="B127" s="51">
+        <f t="shared" si="44"/>
+        <v>12.239468245427275</v>
       </c>
       <c r="C127" s="22">
-        <f t="shared" ref="C127:C130" si="13">$B$9+C126</f>
-        <v>14.266075828252529</v>
+        <f t="shared" si="45"/>
+        <v>-0.49046191902779318</v>
       </c>
       <c r="D127" s="22">
-        <f>D21</f>
+        <f t="shared" si="43"/>
         <v>11</v>
       </c>
       <c r="E127" s="22">
-        <f>$M126-$N126</f>
-        <v>0.16868921752446386</v>
+        <f t="shared" si="46"/>
+        <v>0.35373225981576623</v>
       </c>
       <c r="F127" s="22">
-        <f t="shared" si="9"/>
-        <v>20.074016885411201</v>
-      </c>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51">
-        <f t="shared" si="10"/>
-        <v>4.2021494161672591E-2</v>
-      </c>
-      <c r="J127" s="51"/>
-      <c r="K127" s="51">
-        <f t="shared" si="6"/>
-        <v>1.2110170840192425</v>
-      </c>
-      <c r="L127" s="51">
-        <f t="shared" si="7"/>
-        <v>0.73064697402494294</v>
-      </c>
-      <c r="M127" s="51">
-        <f t="shared" si="11"/>
-        <v>0.38705557139360103</v>
-      </c>
-      <c r="N127" s="51">
-        <f t="shared" si="8"/>
-        <v>0.26750259399450249</v>
-      </c>
-      <c r="O127" s="51"/>
+        <f t="shared" si="47"/>
+        <v>19.955285190438509</v>
+      </c>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34">
+        <f>POWER(D128-F128,2)/F128</f>
+        <v>6.444981079166448E-2</v>
+      </c>
+      <c r="K127" s="34"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="34"/>
+      <c r="N127" s="34"/>
+      <c r="O127" s="34"/>
+      <c r="P127" s="34"/>
     </row>
     <row r="128" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B128" s="22">
-        <f t="shared" si="12"/>
-        <v>14.266075828252529</v>
+      <c r="B128" s="51">
+        <f t="shared" si="44"/>
+        <v>16.292683411077782</v>
       </c>
       <c r="C128" s="22">
-        <f t="shared" si="13"/>
-        <v>18.319290993903035</v>
+        <f t="shared" si="45"/>
+        <v>-0.97083202902209276</v>
       </c>
       <c r="D128" s="22">
-        <f>D22</f>
+        <f t="shared" si="43"/>
         <v>15</v>
       </c>
       <c r="E128" s="22">
-        <f>$M127-$N127</f>
-        <v>0.11955297739909854</v>
+        <f t="shared" si="46"/>
+        <v>0.24902650373170745</v>
       </c>
       <c r="F128" s="22">
-        <f t="shared" si="9"/>
-        <v>14.226804310492726</v>
-      </c>
-      <c r="H128" s="51"/>
-      <c r="I128" s="51">
-        <f t="shared" si="10"/>
-        <v>0.11462791525468112</v>
-      </c>
-      <c r="J128" s="51"/>
-      <c r="K128" s="51">
-        <f t="shared" si="6"/>
-        <v>1.6913871940135421</v>
-      </c>
-      <c r="L128" s="51">
-        <f t="shared" si="7"/>
-        <v>1.2110170840192425</v>
-      </c>
-      <c r="M128" s="51">
-        <f t="shared" si="11"/>
-        <v>0.45461856175069781</v>
-      </c>
-      <c r="N128" s="51">
-        <f t="shared" si="8"/>
-        <v>0.38705557139360103</v>
-      </c>
-      <c r="O128" s="51"/>
+        <f t="shared" si="47"/>
+        <v>14.048463955569739</v>
+      </c>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34">
+        <f>POWER(D129-F129,2)/F129</f>
+        <v>0.1678224594870002</v>
+      </c>
+      <c r="K128" s="34"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="34"/>
+      <c r="N128" s="34"/>
+      <c r="O128" s="34"/>
+      <c r="P128" s="34"/>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B129" s="22">
-        <f t="shared" si="12"/>
-        <v>18.319290993903035</v>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B129" s="51">
+        <f t="shared" si="44"/>
+        <v>20.345898576728288</v>
       </c>
       <c r="C129" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="45"/>
+        <v>-1.4512021390163923</v>
+      </c>
+      <c r="D129" s="22">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="E129" s="22">
+        <f t="shared" si="46"/>
+        <v>0.13918763593294531</v>
+      </c>
+      <c r="F129" s="22">
+        <f t="shared" si="47"/>
+        <v>7.8520657727725096</v>
+      </c>
+      <c r="J129" s="34">
+        <f>POWER(D130-F130,2)/F130</f>
+        <v>5.8589615516011246</v>
+      </c>
+      <c r="K129" s="34"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="34"/>
+      <c r="N129" s="34"/>
+      <c r="O129" s="34"/>
+      <c r="P129" s="34"/>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B130" s="51">
+        <f t="shared" si="44"/>
         <v>22.372506159553541</v>
       </c>
-      <c r="D129" s="22">
-        <f>D23</f>
-        <v>9</v>
-      </c>
-      <c r="E129" s="22">
-        <f>$M128-$N128</f>
-        <v>6.7562990357096786E-2</v>
-      </c>
-      <c r="F129" s="22">
-        <f t="shared" si="9"/>
-        <v>8.039995852494517</v>
-      </c>
-      <c r="I129" s="51">
-        <f t="shared" si="10"/>
-        <v>15.021643048218484</v>
-      </c>
-      <c r="J129" s="51"/>
-      <c r="K129" s="51">
-        <f t="shared" si="6"/>
-        <v>2.1717573040078419</v>
-      </c>
-      <c r="L129" s="51">
-        <f t="shared" si="7"/>
-        <v>1.6913871940135421</v>
-      </c>
-      <c r="M129" s="51">
-        <f t="shared" si="11"/>
-        <v>0.48506301315284817</v>
-      </c>
-      <c r="N129" s="51">
-        <f t="shared" si="8"/>
-        <v>0.45461856175069781</v>
-      </c>
-      <c r="O129" s="51"/>
+      <c r="C130" s="22">
+        <f t="shared" si="45"/>
+        <v>-1.6913871940135421</v>
+      </c>
+      <c r="D130" s="22">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="E130" s="22">
+        <f t="shared" si="46"/>
+        <v>9.5432713238655376E-2</v>
+      </c>
+      <c r="F130" s="22">
+        <f t="shared" si="47"/>
+        <v>5.3836961609511196</v>
+      </c>
+      <c r="J130" s="34"/>
+      <c r="K130" s="34"/>
+      <c r="L130" s="34"/>
+      <c r="M130" s="34"/>
+      <c r="N130" s="34"/>
+      <c r="O130" s="34"/>
+      <c r="P130" s="34"/>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B130" s="22">
-        <f t="shared" si="12"/>
-        <v>22.372506159553541</v>
-      </c>
-      <c r="C130" s="22">
-        <f t="shared" si="13"/>
-        <v>26.425721325204048</v>
-      </c>
-      <c r="D130" s="22">
-        <f>D24</f>
-        <v>11</v>
-      </c>
-      <c r="E130" s="22">
-        <f>$M129-$N129</f>
-        <v>3.0444451402150352E-2</v>
-      </c>
-      <c r="F130" s="22">
-        <f>$B$3*E130</f>
-        <v>3.6228897168558918</v>
-      </c>
-      <c r="I130" s="51"/>
-      <c r="J130" s="51"/>
-      <c r="K130" s="51"/>
-      <c r="L130" s="51"/>
-      <c r="M130" s="51"/>
-      <c r="N130" s="51"/>
-      <c r="O130" s="51"/>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="34"/>
+      <c r="N131" s="34"/>
+      <c r="O131" s="34"/>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I131" s="51"/>
-      <c r="J131" s="51"/>
-      <c r="K131" s="51"/>
-      <c r="L131" s="51"/>
-      <c r="M131" s="51"/>
-      <c r="N131" s="51"/>
-      <c r="O131" s="51"/>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="34"/>
+      <c r="N132" s="34"/>
+      <c r="O132" s="34"/>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I132" s="51"/>
-      <c r="J132" s="51"/>
-      <c r="K132" s="51"/>
-      <c r="L132" s="51"/>
-      <c r="M132" s="51"/>
-      <c r="N132" s="51"/>
-      <c r="O132" s="51"/>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B134" s="31" t="s">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B134" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="32"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="36"/>
       <c r="G134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B135" s="30" t="s">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B135" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C135" s="31">
-        <f>SUM(I122:I129)</f>
-        <v>35.172236261749092</v>
-      </c>
-      <c r="D135" s="32"/>
+      <c r="C135" s="35">
+        <f>SUM(J122:J129)</f>
+        <v>26.564936630104022</v>
+      </c>
+      <c r="D135" s="36"/>
       <c r="F135">
         <f>F123/$B$8</f>
-        <v>6.9518747005111917E-2</v>
+        <v>6.7931188520624602E-2</v>
       </c>
       <c r="G135">
         <f>G134+F135</f>
-        <v>6.9518747005111917E-2</v>
+        <v>6.7931188520624602E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B136" s="30" t="s">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B136" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C136" s="31">
+      <c r="C136" s="35">
         <f>CHIINV(0.05,B11-1-C137)</f>
         <v>11.070497693516353</v>
       </c>
-      <c r="D136" s="32"/>
+      <c r="D136" s="36"/>
       <c r="F136">
-        <f t="shared" ref="F136:F143" si="14">F124/$B$8</f>
-        <v>0.12184893934690932</v>
+        <f>F124/$B$8</f>
+        <v>0.12036587498334592</v>
       </c>
       <c r="G136">
-        <f t="shared" ref="G136:G143" si="15">G135+F136</f>
-        <v>0.19136768635202123</v>
+        <f t="shared" ref="G136:G142" si="48">G135+F136</f>
+        <v>0.18829706350397052</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B137" s="30" t="s">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B137" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C137" s="31">
+      <c r="C137" s="35">
         <v>2</v>
       </c>
-      <c r="D137" s="32"/>
+      <c r="D137" s="36"/>
       <c r="F137">
-        <f t="shared" si="14"/>
-        <v>0.17030123307976541</v>
+        <f t="shared" ref="F136:F142" si="49">F125/$B$8</f>
+        <v>0.16932525020789974</v>
       </c>
       <c r="G137">
-        <f t="shared" si="15"/>
-        <v>0.36166891943178664</v>
+        <f t="shared" si="48"/>
+        <v>0.35762231371187025</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B138" s="33" t="s">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B138" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="50"/>
       <c r="F138">
-        <f t="shared" si="14"/>
-        <v>0.18980371994584955</v>
+        <f t="shared" si="49"/>
+        <v>0.18911425205597412</v>
       </c>
       <c r="G138">
-        <f t="shared" si="15"/>
-        <v>0.55147263937763613</v>
+        <f t="shared" si="48"/>
+        <v>0.54673656576784435</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F139">
-        <f t="shared" si="14"/>
-        <v>0.16868921752446386</v>
+        <f t="shared" si="49"/>
+        <v>0.1676914721885589</v>
       </c>
       <c r="G139">
-        <f t="shared" si="15"/>
-        <v>0.72016185690209999</v>
+        <f t="shared" si="48"/>
+        <v>0.71442803795640319</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F140">
-        <f t="shared" si="14"/>
-        <v>0.11955297739909854</v>
+        <f t="shared" si="49"/>
+        <v>0.11805431895436755</v>
       </c>
       <c r="G140">
-        <f t="shared" si="15"/>
-        <v>0.83971483430119853</v>
+        <f t="shared" si="48"/>
+        <v>0.83248235691077077</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B141" s="36" t="s">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B141" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
       <c r="F141">
-        <f t="shared" si="14"/>
-        <v>6.7562990357096786E-2</v>
+        <f t="shared" si="49"/>
+        <v>6.5983745989684955E-2</v>
       </c>
       <c r="G141">
-        <f t="shared" si="15"/>
-        <v>0.90727782465829532</v>
+        <f t="shared" si="48"/>
+        <v>0.8984661029004557</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C142" s="31">
+      <c r="C142" s="35">
         <f>ABS(C135-B11)/SQRT(2*B11)</f>
-        <v>6.7930590654372729</v>
-      </c>
-      <c r="D142" s="32"/>
+        <v>4.6412341575260054</v>
+      </c>
+      <c r="D142" s="36"/>
       <c r="F142">
-        <f t="shared" si="14"/>
-        <v>3.0444451402150352E-2</v>
+        <f t="shared" si="49"/>
+        <v>4.5241144209673276E-2</v>
       </c>
       <c r="G142">
-        <f t="shared" si="15"/>
-        <v>0.93772227606044567</v>
+        <f t="shared" si="48"/>
+        <v>0.94370724711012899</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B143" s="31" t="s">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B143" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="32"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="36"/>
     </row>
   </sheetData>
   <sortState columnSort="1" ref="B2:DP2">
     <sortCondition ref="B2:DP2"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B143:D143"/>
     <mergeCell ref="C136:D136"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B14:G14"/>
@@ -11814,11 +11594,6 @@
     <mergeCell ref="B121:F121"/>
     <mergeCell ref="B134:D134"/>
     <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B143:D143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
